--- a/source_analyses/nl/2019/2_power_and_heat_plant/2_chp_pp_source_analysis.xlsx
+++ b/source_analyses/nl/2019/2_power_and_heat_plant/2_chp_pp_source_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Git/etdataset/source_analyses/nl/2019/2_power_and_heat_plant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8142C37-2F75-A340-AFA5-7AAA3AF7A3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680A2503-4988-4243-A0CC-36A10A541CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="-42700" windowWidth="38400" windowHeight="42700" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14020" yWindow="-42700" windowWidth="38400" windowHeight="42700" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="5" r:id="rId1"/>
@@ -158,7 +158,7 @@
     Including steam turbines (not coal)</t>
       </text>
     </comment>
-    <comment ref="D46" authorId="2" shapeId="0" xr:uid="{173444DD-03DD-2745-8D83-E213326BC714}">
+    <comment ref="D47" authorId="2" shapeId="0" xr:uid="{173444DD-03DD-2745-8D83-E213326BC714}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="2" shapeId="0" xr:uid="{B68777A9-3245-3E44-9437-6573E3D1533C}">
+    <comment ref="E47" authorId="2" shapeId="0" xr:uid="{B68777A9-3245-3E44-9437-6573E3D1533C}">
       <text>
         <r>
           <rPr>
@@ -227,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="2" shapeId="0" xr:uid="{DA2C215F-CEC4-C144-A1E2-BE1368DE09B8}">
+    <comment ref="D58" authorId="2" shapeId="0" xr:uid="{DA2C215F-CEC4-C144-A1E2-BE1368DE09B8}">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="2" shapeId="0" xr:uid="{4B17D06D-D0B0-534E-A318-A4F3BAB0CD47}">
+    <comment ref="E58" authorId="2" shapeId="0" xr:uid="{4B17D06D-D0B0-534E-A318-A4F3BAB0CD47}">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E59" authorId="2" shapeId="0" xr:uid="{379E9884-0D77-F442-92AB-20D5D792E747}">
+    <comment ref="E61" authorId="2" shapeId="0" xr:uid="{379E9884-0D77-F442-92AB-20D5D792E747}">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="3" shapeId="0" xr:uid="{219FE2E2-AC7D-C346-B7CD-1A03249A76AF}">
+    <comment ref="D72" authorId="3" shapeId="0" xr:uid="{219FE2E2-AC7D-C346-B7CD-1A03249A76AF}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -573,7 +573,7 @@
     Including CHPs from energy sector shifted to industry by PPHP analysis</t>
       </text>
     </comment>
-    <comment ref="F87" authorId="2" shapeId="0" xr:uid="{24110F22-1E7A-304E-AFDA-AC5EE7430297}">
+    <comment ref="F88" authorId="2" shapeId="0" xr:uid="{24110F22-1E7A-304E-AFDA-AC5EE7430297}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -586,7 +586,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="527">
   <si>
     <t/>
   </si>
@@ -1845,9 +1845,6 @@
     <t>Vollasturen</t>
   </si>
   <si>
-    <t>CHP ETM (2013)</t>
-  </si>
-  <si>
     <r>
       <t>Irrelevant where PV is installed.This is specified in the autoproducer table.</t>
     </r>
@@ -2385,6 +2382,12 @@
   <si>
     <t>CHP ETM (2019)</t>
   </si>
+  <si>
+    <t>Coal gas CHP</t>
+  </si>
+  <si>
+    <t>Coal gas</t>
+  </si>
 </sst>
 </file>
 
@@ -2404,7 +2407,7 @@
     <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="175" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2804,12 +2807,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -3689,7 +3686,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4329,6 +4326,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="0" xfId="154" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="1" xfId="154" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4380,10 +4380,22 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4393,9 +4405,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4425,15 +4434,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4449,9 +4449,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="154" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="0" xfId="154" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="1" xfId="154" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="154" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="261">
     <cellStyle name="Bad" xfId="107" builtinId="27"/>
@@ -5509,7 +5508,7 @@
   <threadedComment ref="E44" dT="2021-05-05T15:10:00.09" personId="{D0C81118-F884-294E-A9AA-D017BAEFD23A}" id="{1F7B0686-4EE8-074E-8B69-F815F2DB21F5}">
     <text>Including steam turbines (not coal)</text>
   </threadedComment>
-  <threadedComment ref="D70" dT="2021-05-07T15:45:54.09" personId="{D0C81118-F884-294E-A9AA-D017BAEFD23A}" id="{219FE2E2-AC7D-C346-B7CD-1A03249A76AF}">
+  <threadedComment ref="D72" dT="2021-05-07T15:45:54.09" personId="{D0C81118-F884-294E-A9AA-D017BAEFD23A}" id="{219FE2E2-AC7D-C346-B7CD-1A03249A76AF}">
     <text xml:space="preserve">from Eurostat Energy balance (see CHP analysis Results by fuel tab)
 </text>
   </threadedComment>
@@ -5530,7 +5529,7 @@
   <threadedComment ref="F83" dT="2021-08-17T15:30:54.92" personId="{D0C81118-F884-294E-A9AA-D017BAEFD23A}" id="{DB31E75D-B159-1247-9988-D5DC45FE19A7}">
     <text>Including CHPs from energy sector shifted to industry by PPHP analysis</text>
   </threadedComment>
-  <threadedComment ref="F87" dT="2021-08-17T15:30:27.05" personId="{D0C81118-F884-294E-A9AA-D017BAEFD23A}" id="{24110F22-1E7A-304E-AFDA-AC5EE7430297}">
+  <threadedComment ref="F88" dT="2021-08-17T15:30:27.05" personId="{D0C81118-F884-294E-A9AA-D017BAEFD23A}" id="{24110F22-1E7A-304E-AFDA-AC5EE7430297}">
     <text>Shifted to industry by PPHP analysis</text>
   </threadedComment>
 </ThreadedComments>
@@ -5570,7 +5569,7 @@
         <v>182</v>
       </c>
       <c r="C4" s="304" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D4" s="20"/>
       <c r="F4" s="52"/>
@@ -5879,19 +5878,19 @@
     </row>
     <row r="5" spans="1:14" s="16" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
-      <c r="B5" s="483" t="s">
-        <v>501</v>
-      </c>
-      <c r="C5" s="456"/>
-      <c r="D5" s="456"/>
-      <c r="E5" s="457"/>
+      <c r="B5" s="474" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="459"/>
+      <c r="D5" s="459"/>
+      <c r="E5" s="460"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -5920,31 +5919,31 @@
       <c r="I11" s="183"/>
       <c r="J11" s="183"/>
       <c r="K11" s="183"/>
-      <c r="L11" s="484"/>
-      <c r="M11" s="484"/>
-      <c r="N11" s="485"/>
+      <c r="L11" s="475"/>
+      <c r="M11" s="475"/>
+      <c r="N11" s="476"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="176"/>
-      <c r="D12" s="473" t="s">
+      <c r="D12" s="471" t="s">
         <v>352</v>
       </c>
-      <c r="E12" s="468"/>
-      <c r="F12" s="469"/>
+      <c r="E12" s="472"/>
+      <c r="F12" s="473"/>
       <c r="G12" s="187" t="s">
         <v>360</v>
       </c>
       <c r="H12" s="185"/>
-      <c r="I12" s="473" t="s">
+      <c r="I12" s="471" t="s">
         <v>353</v>
       </c>
-      <c r="J12" s="468"/>
-      <c r="K12" s="469"/>
-      <c r="L12" s="473" t="s">
+      <c r="J12" s="472"/>
+      <c r="K12" s="473"/>
+      <c r="L12" s="471" t="s">
         <v>410</v>
       </c>
-      <c r="M12" s="468"/>
-      <c r="N12" s="469"/>
+      <c r="M12" s="472"/>
+      <c r="N12" s="473"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="177"/>
@@ -5984,21 +5983,21 @@
       <c r="C14" s="178" t="s">
         <v>356</v>
       </c>
-      <c r="D14" s="474" t="s">
+      <c r="D14" s="480" t="s">
         <v>357</v>
       </c>
-      <c r="E14" s="475"/>
-      <c r="F14" s="476"/>
+      <c r="E14" s="481"/>
+      <c r="F14" s="482"/>
       <c r="G14" s="186"/>
       <c r="H14" s="186"/>
-      <c r="I14" s="474" t="s">
+      <c r="I14" s="480" t="s">
         <v>358</v>
       </c>
-      <c r="J14" s="475"/>
-      <c r="K14" s="476"/>
-      <c r="L14" s="474"/>
-      <c r="M14" s="475"/>
-      <c r="N14" s="476"/>
+      <c r="J14" s="481"/>
+      <c r="K14" s="482"/>
+      <c r="L14" s="480"/>
+      <c r="M14" s="481"/>
+      <c r="N14" s="482"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="288">
@@ -6358,10 +6357,10 @@
       <c r="E29" s="180"/>
       <c r="F29" s="180"/>
       <c r="G29" s="279"/>
-      <c r="I29" s="479" t="s">
-        <v>521</v>
-      </c>
-      <c r="J29" s="480"/>
+      <c r="I29" s="485" t="s">
+        <v>520</v>
+      </c>
+      <c r="J29" s="486"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="182"/>
@@ -6369,21 +6368,21 @@
       <c r="E30" s="183"/>
       <c r="F30" s="183"/>
       <c r="G30" s="280"/>
-      <c r="I30" s="481"/>
-      <c r="J30" s="482"/>
+      <c r="I30" s="487"/>
+      <c r="J30" s="488"/>
     </row>
     <row r="31" spans="3:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="176"/>
-      <c r="D31" s="473" t="s">
+      <c r="D31" s="471" t="s">
         <v>366</v>
       </c>
-      <c r="E31" s="468"/>
-      <c r="F31" s="468"/>
-      <c r="G31" s="469"/>
-      <c r="I31" s="477" t="s">
+      <c r="E31" s="472"/>
+      <c r="F31" s="472"/>
+      <c r="G31" s="473"/>
+      <c r="I31" s="483" t="s">
         <v>366</v>
       </c>
-      <c r="J31" s="478"/>
+      <c r="J31" s="484"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="177"/>
@@ -6400,27 +6399,27 @@
         <v>383</v>
       </c>
       <c r="I32" s="274" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J32" s="432" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C33" s="178" t="s">
         <v>384</v>
       </c>
-      <c r="D33" s="470" t="s">
+      <c r="D33" s="477" t="s">
         <v>385</v>
       </c>
-      <c r="E33" s="471"/>
-      <c r="F33" s="471"/>
-      <c r="G33" s="472"/>
+      <c r="E33" s="478"/>
+      <c r="F33" s="478"/>
+      <c r="G33" s="479"/>
       <c r="I33" s="442" t="s">
         <v>385</v>
       </c>
       <c r="J33" s="443" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
@@ -6490,7 +6489,7 @@
         <v>350</v>
       </c>
       <c r="C40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
@@ -6516,14 +6515,14 @@
         <v>0</v>
       </c>
       <c r="D44" s="299"/>
-      <c r="E44" s="468" t="s">
+      <c r="E44" s="472" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="468"/>
-      <c r="G44" s="468" t="s">
+      <c r="F44" s="472"/>
+      <c r="G44" s="472" t="s">
         <v>394</v>
       </c>
-      <c r="H44" s="469"/>
+      <c r="H44" s="473"/>
     </row>
     <row r="45" spans="2:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C45" s="165" t="s">
@@ -6584,7 +6583,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C48" s="465" t="s">
+      <c r="C48" s="468" t="s">
         <v>400</v>
       </c>
       <c r="D48" s="431">
@@ -6602,12 +6601,12 @@
       <c r="H48" s="279">
         <v>205</v>
       </c>
-      <c r="I48" s="465" t="s">
-        <v>510</v>
+      <c r="I48" s="468" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C49" s="466"/>
+      <c r="C49" s="469"/>
       <c r="D49" s="275">
         <v>2012</v>
       </c>
@@ -6623,10 +6622,10 @@
       <c r="H49" s="432">
         <v>209</v>
       </c>
-      <c r="I49" s="466"/>
+      <c r="I49" s="469"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C50" s="466"/>
+      <c r="C50" s="469"/>
       <c r="D50" s="275">
         <v>2013</v>
       </c>
@@ -6642,10 +6641,10 @@
       <c r="H50" s="432">
         <v>207</v>
       </c>
-      <c r="I50" s="466"/>
+      <c r="I50" s="469"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C51" s="466"/>
+      <c r="C51" s="469"/>
       <c r="D51" s="275">
         <v>2014</v>
       </c>
@@ -6661,10 +6660,10 @@
       <c r="H51" s="432">
         <v>212</v>
       </c>
-      <c r="I51" s="466"/>
+      <c r="I51" s="469"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C52" s="466"/>
+      <c r="C52" s="469"/>
       <c r="D52" s="275">
         <v>2015</v>
       </c>
@@ -6680,10 +6679,10 @@
       <c r="H52" s="432">
         <v>211</v>
       </c>
-      <c r="I52" s="466"/>
+      <c r="I52" s="469"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C53" s="466"/>
+      <c r="C53" s="469"/>
       <c r="D53" s="275">
         <v>2016</v>
       </c>
@@ -6699,10 +6698,10 @@
       <c r="H53" s="432">
         <v>198</v>
       </c>
-      <c r="I53" s="466"/>
+      <c r="I53" s="469"/>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C54" s="466"/>
+      <c r="C54" s="469"/>
       <c r="D54" s="275">
         <v>2017</v>
       </c>
@@ -6718,10 +6717,10 @@
       <c r="H54" s="432">
         <v>218</v>
       </c>
-      <c r="I54" s="466"/>
+      <c r="I54" s="469"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C55" s="466"/>
+      <c r="C55" s="469"/>
       <c r="D55" s="275">
         <v>2018</v>
       </c>
@@ -6737,10 +6736,10 @@
       <c r="H55" s="432">
         <v>218</v>
       </c>
-      <c r="I55" s="466"/>
+      <c r="I55" s="469"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C56" s="467"/>
+      <c r="C56" s="470"/>
       <c r="D56" s="433">
         <v>2019</v>
       </c>
@@ -6756,10 +6755,10 @@
       <c r="H56" s="280">
         <v>219</v>
       </c>
-      <c r="I56" s="467"/>
+      <c r="I56" s="470"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C57" s="465" t="s">
+      <c r="C57" s="468" t="s">
         <v>401</v>
       </c>
       <c r="D57" s="431">
@@ -6777,12 +6776,12 @@
       <c r="H57" s="279">
         <v>328</v>
       </c>
-      <c r="I57" s="465" t="s">
-        <v>510</v>
+      <c r="I57" s="468" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C58" s="466" t="s">
+      <c r="C58" s="469" t="s">
         <v>401</v>
       </c>
       <c r="D58" s="275">
@@ -6800,10 +6799,10 @@
       <c r="H58" s="432">
         <v>325</v>
       </c>
-      <c r="I58" s="466"/>
+      <c r="I58" s="469"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C59" s="466" t="s">
+      <c r="C59" s="469" t="s">
         <v>401</v>
       </c>
       <c r="D59" s="275">
@@ -6821,10 +6820,10 @@
       <c r="H59" s="432">
         <v>325</v>
       </c>
-      <c r="I59" s="466"/>
+      <c r="I59" s="469"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C60" s="466" t="s">
+      <c r="C60" s="469" t="s">
         <v>401</v>
       </c>
       <c r="D60" s="275">
@@ -6842,10 +6841,10 @@
       <c r="H60" s="432">
         <v>329</v>
       </c>
-      <c r="I60" s="466"/>
+      <c r="I60" s="469"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C61" s="466" t="s">
+      <c r="C61" s="469" t="s">
         <v>401</v>
       </c>
       <c r="D61" s="275">
@@ -6863,10 +6862,10 @@
       <c r="H61" s="432">
         <v>321</v>
       </c>
-      <c r="I61" s="466"/>
+      <c r="I61" s="469"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C62" s="466" t="s">
+      <c r="C62" s="469" t="s">
         <v>401</v>
       </c>
       <c r="D62" s="275">
@@ -6884,10 +6883,10 @@
       <c r="H62" s="432">
         <v>311</v>
       </c>
-      <c r="I62" s="466"/>
+      <c r="I62" s="469"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C63" s="466" t="s">
+      <c r="C63" s="469" t="s">
         <v>401</v>
       </c>
       <c r="D63" s="275">
@@ -6905,10 +6904,10 @@
       <c r="H63" s="432">
         <v>307</v>
       </c>
-      <c r="I63" s="466"/>
+      <c r="I63" s="469"/>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C64" s="466" t="s">
+      <c r="C64" s="469" t="s">
         <v>401</v>
       </c>
       <c r="D64" s="275">
@@ -6926,10 +6925,10 @@
       <c r="H64" s="432">
         <v>302</v>
       </c>
-      <c r="I64" s="466"/>
+      <c r="I64" s="469"/>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C65" s="467" t="s">
+      <c r="C65" s="470" t="s">
         <v>401</v>
       </c>
       <c r="D65" s="433">
@@ -6947,10 +6946,10 @@
       <c r="H65" s="280">
         <v>303</v>
       </c>
-      <c r="I65" s="467"/>
+      <c r="I65" s="470"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C66" s="465" t="s">
+      <c r="C66" s="468" t="s">
         <v>402</v>
       </c>
       <c r="D66" s="431">
@@ -6968,12 +6967,12 @@
       <c r="H66" s="279">
         <v>578</v>
       </c>
-      <c r="I66" s="465" t="s">
-        <v>510</v>
+      <c r="I66" s="468" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C67" s="466" t="s">
+      <c r="C67" s="469" t="s">
         <v>402</v>
       </c>
       <c r="D67" s="275">
@@ -6991,10 +6990,10 @@
       <c r="H67" s="432">
         <v>584</v>
       </c>
-      <c r="I67" s="466"/>
+      <c r="I67" s="469"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C68" s="466" t="s">
+      <c r="C68" s="469" t="s">
         <v>402</v>
       </c>
       <c r="D68" s="275">
@@ -7012,10 +7011,10 @@
       <c r="H68" s="432">
         <v>628</v>
       </c>
-      <c r="I68" s="466"/>
+      <c r="I68" s="469"/>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C69" s="466" t="s">
+      <c r="C69" s="469" t="s">
         <v>402</v>
       </c>
       <c r="D69" s="275">
@@ -7033,10 +7032,10 @@
       <c r="H69" s="432">
         <v>638</v>
       </c>
-      <c r="I69" s="466"/>
+      <c r="I69" s="469"/>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C70" s="466" t="s">
+      <c r="C70" s="469" t="s">
         <v>402</v>
       </c>
       <c r="D70" s="275">
@@ -7054,10 +7053,10 @@
       <c r="H70" s="432">
         <v>621</v>
       </c>
-      <c r="I70" s="466"/>
+      <c r="I70" s="469"/>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C71" s="466" t="s">
+      <c r="C71" s="469" t="s">
         <v>402</v>
       </c>
       <c r="D71" s="275">
@@ -7075,10 +7074,10 @@
       <c r="H71" s="432">
         <v>648</v>
       </c>
-      <c r="I71" s="466"/>
+      <c r="I71" s="469"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C72" s="466" t="s">
+      <c r="C72" s="469" t="s">
         <v>402</v>
       </c>
       <c r="D72" s="275">
@@ -7096,10 +7095,10 @@
       <c r="H72" s="432">
         <v>641</v>
       </c>
-      <c r="I72" s="466"/>
+      <c r="I72" s="469"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C73" s="466" t="s">
+      <c r="C73" s="469" t="s">
         <v>402</v>
       </c>
       <c r="D73" s="275">
@@ -7117,10 +7116,10 @@
       <c r="H73" s="432">
         <v>640</v>
       </c>
-      <c r="I73" s="466"/>
+      <c r="I73" s="469"/>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C74" s="467" t="s">
+      <c r="C74" s="470" t="s">
         <v>402</v>
       </c>
       <c r="D74" s="433">
@@ -7138,10 +7137,10 @@
       <c r="H74" s="280">
         <v>625</v>
       </c>
-      <c r="I74" s="467"/>
+      <c r="I74" s="470"/>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C75" s="465" t="s">
+      <c r="C75" s="468" t="s">
         <v>403</v>
       </c>
       <c r="D75" s="431">
@@ -7159,12 +7158,12 @@
       <c r="H75" s="279">
         <v>319</v>
       </c>
-      <c r="I75" s="465" t="s">
-        <v>510</v>
+      <c r="I75" s="468" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C76" s="466" t="s">
+      <c r="C76" s="469" t="s">
         <v>403</v>
       </c>
       <c r="D76" s="275">
@@ -7182,10 +7181,10 @@
       <c r="H76" s="432">
         <v>329</v>
       </c>
-      <c r="I76" s="466"/>
+      <c r="I76" s="469"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C77" s="466" t="s">
+      <c r="C77" s="469" t="s">
         <v>403</v>
       </c>
       <c r="D77" s="275">
@@ -7203,10 +7202,10 @@
       <c r="H77" s="432">
         <v>328</v>
       </c>
-      <c r="I77" s="466"/>
+      <c r="I77" s="469"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C78" s="466" t="s">
+      <c r="C78" s="469" t="s">
         <v>403</v>
       </c>
       <c r="D78" s="275">
@@ -7224,10 +7223,10 @@
       <c r="H78" s="432">
         <v>329</v>
       </c>
-      <c r="I78" s="466"/>
+      <c r="I78" s="469"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C79" s="466" t="s">
+      <c r="C79" s="469" t="s">
         <v>403</v>
       </c>
       <c r="D79" s="275">
@@ -7245,10 +7244,10 @@
       <c r="H79" s="432">
         <v>327</v>
       </c>
-      <c r="I79" s="466"/>
+      <c r="I79" s="469"/>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C80" s="466" t="s">
+      <c r="C80" s="469" t="s">
         <v>403</v>
       </c>
       <c r="D80" s="275">
@@ -7266,10 +7265,10 @@
       <c r="H80" s="432">
         <v>306</v>
       </c>
-      <c r="I80" s="466"/>
+      <c r="I80" s="469"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C81" s="466" t="s">
+      <c r="C81" s="469" t="s">
         <v>403</v>
       </c>
       <c r="D81" s="275">
@@ -7287,10 +7286,10 @@
       <c r="H81" s="432">
         <v>275</v>
       </c>
-      <c r="I81" s="466"/>
+      <c r="I81" s="469"/>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C82" s="466" t="s">
+      <c r="C82" s="469" t="s">
         <v>403</v>
       </c>
       <c r="D82" s="275">
@@ -7308,10 +7307,10 @@
       <c r="H82" s="432">
         <v>274</v>
       </c>
-      <c r="I82" s="466"/>
+      <c r="I82" s="469"/>
     </row>
     <row r="83" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="467" t="s">
+      <c r="C83" s="470" t="s">
         <v>403</v>
       </c>
       <c r="D83" s="433">
@@ -7329,10 +7328,10 @@
       <c r="H83" s="280">
         <v>260</v>
       </c>
-      <c r="I83" s="467"/>
+      <c r="I83" s="470"/>
     </row>
     <row r="84" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="465" t="s">
+      <c r="C84" s="468" t="s">
         <v>404</v>
       </c>
       <c r="D84" s="431">
@@ -7350,12 +7349,12 @@
       <c r="H84" s="279">
         <v>155</v>
       </c>
-      <c r="I84" s="465" t="s">
-        <v>510</v>
+      <c r="I84" s="468" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="466" t="s">
+      <c r="C85" s="469" t="s">
         <v>404</v>
       </c>
       <c r="D85" s="275">
@@ -7373,10 +7372,10 @@
       <c r="H85" s="432">
         <v>145</v>
       </c>
-      <c r="I85" s="466"/>
+      <c r="I85" s="469"/>
     </row>
     <row r="86" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="466" t="s">
+      <c r="C86" s="469" t="s">
         <v>404</v>
       </c>
       <c r="D86" s="275">
@@ -7394,10 +7393,10 @@
       <c r="H86" s="432">
         <v>150</v>
       </c>
-      <c r="I86" s="466"/>
+      <c r="I86" s="469"/>
     </row>
     <row r="87" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="466" t="s">
+      <c r="C87" s="469" t="s">
         <v>404</v>
       </c>
       <c r="D87" s="275">
@@ -7415,10 +7414,10 @@
       <c r="H87" s="432">
         <v>157</v>
       </c>
-      <c r="I87" s="466"/>
+      <c r="I87" s="469"/>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C88" s="466" t="s">
+      <c r="C88" s="469" t="s">
         <v>404</v>
       </c>
       <c r="D88" s="275">
@@ -7436,10 +7435,10 @@
       <c r="H88" s="432">
         <v>167</v>
       </c>
-      <c r="I88" s="466"/>
+      <c r="I88" s="469"/>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C89" s="466" t="s">
+      <c r="C89" s="469" t="s">
         <v>404</v>
       </c>
       <c r="D89" s="275">
@@ -7457,10 +7456,10 @@
       <c r="H89" s="432">
         <v>172</v>
       </c>
-      <c r="I89" s="466"/>
+      <c r="I89" s="469"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C90" s="466" t="s">
+      <c r="C90" s="469" t="s">
         <v>404</v>
       </c>
       <c r="D90" s="275">
@@ -7478,10 +7477,10 @@
       <c r="H90" s="432">
         <v>141</v>
       </c>
-      <c r="I90" s="466"/>
+      <c r="I90" s="469"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C91" s="466" t="s">
+      <c r="C91" s="469" t="s">
         <v>404</v>
       </c>
       <c r="D91" s="275">
@@ -7499,10 +7498,10 @@
       <c r="H91" s="432">
         <v>158</v>
       </c>
-      <c r="I91" s="466"/>
+      <c r="I91" s="469"/>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C92" s="467" t="s">
+      <c r="C92" s="470" t="s">
         <v>404</v>
       </c>
       <c r="D92" s="433">
@@ -7520,10 +7519,10 @@
       <c r="H92" s="280">
         <v>171</v>
       </c>
-      <c r="I92" s="467"/>
+      <c r="I92" s="470"/>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C93" s="465" t="s">
+      <c r="C93" s="468" t="s">
         <v>405</v>
       </c>
       <c r="D93" s="431">
@@ -7541,12 +7540,12 @@
       <c r="H93" s="279">
         <v>199</v>
       </c>
-      <c r="I93" s="465" t="s">
-        <v>510</v>
+      <c r="I93" s="468" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C94" s="466" t="s">
+      <c r="C94" s="469" t="s">
         <v>405</v>
       </c>
       <c r="D94" s="275">
@@ -7564,10 +7563,10 @@
       <c r="H94" s="432">
         <v>175</v>
       </c>
-      <c r="I94" s="466"/>
+      <c r="I94" s="469"/>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C95" s="466" t="s">
+      <c r="C95" s="469" t="s">
         <v>405</v>
       </c>
       <c r="D95" s="275">
@@ -7585,10 +7584,10 @@
       <c r="H95" s="432">
         <v>210</v>
       </c>
-      <c r="I95" s="466"/>
+      <c r="I95" s="469"/>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C96" s="466" t="s">
+      <c r="C96" s="469" t="s">
         <v>405</v>
       </c>
       <c r="D96" s="275">
@@ -7606,10 +7605,10 @@
       <c r="H96" s="432">
         <v>213</v>
       </c>
-      <c r="I96" s="466"/>
+      <c r="I96" s="469"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C97" s="466" t="s">
+      <c r="C97" s="469" t="s">
         <v>405</v>
       </c>
       <c r="D97" s="275">
@@ -7627,10 +7626,10 @@
       <c r="H97" s="432">
         <v>216</v>
       </c>
-      <c r="I97" s="466"/>
+      <c r="I97" s="469"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C98" s="466" t="s">
+      <c r="C98" s="469" t="s">
         <v>405</v>
       </c>
       <c r="D98" s="275">
@@ -7648,10 +7647,10 @@
       <c r="H98" s="432">
         <v>211</v>
       </c>
-      <c r="I98" s="466"/>
+      <c r="I98" s="469"/>
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C99" s="466" t="s">
+      <c r="C99" s="469" t="s">
         <v>405</v>
       </c>
       <c r="D99" s="275">
@@ -7669,10 +7668,10 @@
       <c r="H99" s="432">
         <v>201</v>
       </c>
-      <c r="I99" s="466"/>
+      <c r="I99" s="469"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C100" s="466" t="s">
+      <c r="C100" s="469" t="s">
         <v>405</v>
       </c>
       <c r="D100" s="275">
@@ -7690,10 +7689,10 @@
       <c r="H100" s="432">
         <v>239</v>
       </c>
-      <c r="I100" s="466"/>
+      <c r="I100" s="469"/>
     </row>
     <row r="101" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C101" s="467" t="s">
+      <c r="C101" s="470" t="s">
         <v>405</v>
       </c>
       <c r="D101" s="433">
@@ -7711,10 +7710,10 @@
       <c r="H101" s="280">
         <v>245</v>
       </c>
-      <c r="I101" s="467"/>
+      <c r="I101" s="470"/>
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C102" s="465" t="s">
+      <c r="C102" s="468" t="s">
         <v>406</v>
       </c>
       <c r="D102" s="431">
@@ -7732,12 +7731,12 @@
       <c r="H102" s="279">
         <v>65</v>
       </c>
-      <c r="I102" s="465" t="s">
-        <v>510</v>
+      <c r="I102" s="468" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C103" s="466" t="s">
+      <c r="C103" s="469" t="s">
         <v>406</v>
       </c>
       <c r="D103" s="275">
@@ -7755,10 +7754,10 @@
       <c r="H103" s="432">
         <v>70</v>
       </c>
-      <c r="I103" s="466"/>
+      <c r="I103" s="469"/>
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C104" s="466" t="s">
+      <c r="C104" s="469" t="s">
         <v>406</v>
       </c>
       <c r="D104" s="275">
@@ -7776,10 +7775,10 @@
       <c r="H104" s="432">
         <v>81</v>
       </c>
-      <c r="I104" s="466"/>
+      <c r="I104" s="469"/>
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C105" s="466" t="s">
+      <c r="C105" s="469" t="s">
         <v>406</v>
       </c>
       <c r="D105" s="275">
@@ -7797,10 +7796,10 @@
       <c r="H105" s="432">
         <v>91</v>
       </c>
-      <c r="I105" s="466"/>
+      <c r="I105" s="469"/>
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C106" s="466" t="s">
+      <c r="C106" s="469" t="s">
         <v>406</v>
       </c>
       <c r="D106" s="275">
@@ -7818,10 +7817,10 @@
       <c r="H106" s="432">
         <v>94</v>
       </c>
-      <c r="I106" s="466"/>
+      <c r="I106" s="469"/>
     </row>
     <row r="107" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C107" s="466" t="s">
+      <c r="C107" s="469" t="s">
         <v>406</v>
       </c>
       <c r="D107" s="275">
@@ -7839,10 +7838,10 @@
       <c r="H107" s="432">
         <v>111</v>
       </c>
-      <c r="I107" s="466"/>
+      <c r="I107" s="469"/>
     </row>
     <row r="108" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C108" s="466" t="s">
+      <c r="C108" s="469" t="s">
         <v>406</v>
       </c>
       <c r="D108" s="275">
@@ -7860,10 +7859,10 @@
       <c r="H108" s="432">
         <v>111</v>
       </c>
-      <c r="I108" s="466"/>
+      <c r="I108" s="469"/>
     </row>
     <row r="109" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C109" s="466" t="s">
+      <c r="C109" s="469" t="s">
         <v>406</v>
       </c>
       <c r="D109" s="275">
@@ -7881,10 +7880,10 @@
       <c r="H109" s="432">
         <v>111</v>
       </c>
-      <c r="I109" s="466"/>
+      <c r="I109" s="469"/>
     </row>
     <row r="110" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C110" s="467" t="s">
+      <c r="C110" s="470" t="s">
         <v>406</v>
       </c>
       <c r="D110" s="433">
@@ -7902,11 +7901,11 @@
       <c r="H110" s="280">
         <v>114</v>
       </c>
-      <c r="I110" s="467"/>
+      <c r="I110" s="470"/>
     </row>
     <row r="111" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C111" s="465" t="s">
-        <v>504</v>
+      <c r="C111" s="468" t="s">
+        <v>503</v>
       </c>
       <c r="D111" s="431">
         <v>2011</v>
@@ -7923,8 +7922,8 @@
       <c r="H111" s="279">
         <v>3</v>
       </c>
-      <c r="I111" s="465" t="s">
-        <v>511</v>
+      <c r="I111" s="468" t="s">
+        <v>510</v>
       </c>
       <c r="J111" s="436">
         <f>AVERAGE(G121:G146)</f>
@@ -7932,8 +7931,8 @@
       </c>
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C112" s="466" t="s">
-        <v>504</v>
+      <c r="C112" s="469" t="s">
+        <v>503</v>
       </c>
       <c r="D112" s="275">
         <v>2012</v>
@@ -7950,11 +7949,11 @@
       <c r="H112" s="432">
         <v>3</v>
       </c>
-      <c r="I112" s="466"/>
+      <c r="I112" s="469"/>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C113" s="466" t="s">
-        <v>504</v>
+      <c r="C113" s="469" t="s">
+        <v>503</v>
       </c>
       <c r="D113" s="275">
         <v>2013</v>
@@ -7971,11 +7970,11 @@
       <c r="H113" s="432">
         <v>3</v>
       </c>
-      <c r="I113" s="466"/>
+      <c r="I113" s="469"/>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C114" s="466" t="s">
-        <v>504</v>
+      <c r="C114" s="469" t="s">
+        <v>503</v>
       </c>
       <c r="D114" s="275">
         <v>2014</v>
@@ -7992,11 +7991,11 @@
       <c r="H114" s="432">
         <v>6</v>
       </c>
-      <c r="I114" s="466"/>
+      <c r="I114" s="469"/>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C115" s="466" t="s">
-        <v>504</v>
+      <c r="C115" s="469" t="s">
+        <v>503</v>
       </c>
       <c r="D115" s="275">
         <v>2015</v>
@@ -8013,11 +8012,11 @@
       <c r="H115" s="432">
         <v>9</v>
       </c>
-      <c r="I115" s="466"/>
+      <c r="I115" s="469"/>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C116" s="466" t="s">
-        <v>504</v>
+      <c r="C116" s="469" t="s">
+        <v>503</v>
       </c>
       <c r="D116" s="275">
         <v>2016</v>
@@ -8034,11 +8033,11 @@
       <c r="H116" s="432">
         <v>9</v>
       </c>
-      <c r="I116" s="466"/>
+      <c r="I116" s="469"/>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C117" s="466" t="s">
-        <v>504</v>
+      <c r="C117" s="469" t="s">
+        <v>503</v>
       </c>
       <c r="D117" s="275">
         <v>2017</v>
@@ -8055,11 +8054,11 @@
       <c r="H117" s="432">
         <v>9</v>
       </c>
-      <c r="I117" s="466"/>
+      <c r="I117" s="469"/>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C118" s="466" t="s">
-        <v>504</v>
+      <c r="C118" s="469" t="s">
+        <v>503</v>
       </c>
       <c r="D118" s="275">
         <v>2018</v>
@@ -8076,11 +8075,11 @@
       <c r="H118" s="432">
         <v>9</v>
       </c>
-      <c r="I118" s="466"/>
+      <c r="I118" s="469"/>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C119" s="467" t="s">
-        <v>504</v>
+      <c r="C119" s="470" t="s">
+        <v>503</v>
       </c>
       <c r="D119" s="433">
         <v>2019</v>
@@ -8097,11 +8096,11 @@
       <c r="H119" s="280">
         <v>9</v>
       </c>
-      <c r="I119" s="467"/>
+      <c r="I119" s="470"/>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C120" s="465" t="s">
-        <v>505</v>
+      <c r="C120" s="468" t="s">
+        <v>504</v>
       </c>
       <c r="D120" s="431">
         <v>2011</v>
@@ -8118,13 +8117,13 @@
       <c r="H120" s="279">
         <v>3</v>
       </c>
-      <c r="I120" s="465" t="s">
-        <v>511</v>
+      <c r="I120" s="468" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C121" s="466" t="s">
-        <v>505</v>
+      <c r="C121" s="469" t="s">
+        <v>504</v>
       </c>
       <c r="D121" s="275">
         <v>2012</v>
@@ -8141,11 +8140,11 @@
       <c r="H121" s="432">
         <v>11</v>
       </c>
-      <c r="I121" s="466"/>
+      <c r="I121" s="469"/>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C122" s="466" t="s">
-        <v>505</v>
+      <c r="C122" s="469" t="s">
+        <v>504</v>
       </c>
       <c r="D122" s="275">
         <v>2013</v>
@@ -8162,11 +8161,11 @@
       <c r="H122" s="432">
         <v>11</v>
       </c>
-      <c r="I122" s="466"/>
+      <c r="I122" s="469"/>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C123" s="466" t="s">
-        <v>505</v>
+      <c r="C123" s="469" t="s">
+        <v>504</v>
       </c>
       <c r="D123" s="275">
         <v>2014</v>
@@ -8183,11 +8182,11 @@
       <c r="H123" s="432">
         <v>11</v>
       </c>
-      <c r="I123" s="466"/>
+      <c r="I123" s="469"/>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C124" s="466" t="s">
-        <v>505</v>
+      <c r="C124" s="469" t="s">
+        <v>504</v>
       </c>
       <c r="D124" s="275">
         <v>2015</v>
@@ -8204,11 +8203,11 @@
       <c r="H124" s="432">
         <v>17</v>
       </c>
-      <c r="I124" s="466"/>
+      <c r="I124" s="469"/>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C125" s="466" t="s">
-        <v>505</v>
+      <c r="C125" s="469" t="s">
+        <v>504</v>
       </c>
       <c r="D125" s="275">
         <v>2016</v>
@@ -8225,11 +8224,11 @@
       <c r="H125" s="432">
         <v>17</v>
       </c>
-      <c r="I125" s="466"/>
+      <c r="I125" s="469"/>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C126" s="466" t="s">
-        <v>505</v>
+      <c r="C126" s="469" t="s">
+        <v>504</v>
       </c>
       <c r="D126" s="275">
         <v>2017</v>
@@ -8246,11 +8245,11 @@
       <c r="H126" s="432">
         <v>17</v>
       </c>
-      <c r="I126" s="466"/>
+      <c r="I126" s="469"/>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C127" s="466" t="s">
-        <v>505</v>
+      <c r="C127" s="469" t="s">
+        <v>504</v>
       </c>
       <c r="D127" s="275">
         <v>2018</v>
@@ -8267,11 +8266,11 @@
       <c r="H127" s="432">
         <v>17</v>
       </c>
-      <c r="I127" s="466"/>
+      <c r="I127" s="469"/>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C128" s="467" t="s">
-        <v>505</v>
+      <c r="C128" s="470" t="s">
+        <v>504</v>
       </c>
       <c r="D128" s="433">
         <v>2019</v>
@@ -8288,11 +8287,11 @@
       <c r="H128" s="280">
         <v>25</v>
       </c>
-      <c r="I128" s="467"/>
+      <c r="I128" s="470"/>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C129" s="465" t="s">
-        <v>506</v>
+      <c r="C129" s="468" t="s">
+        <v>505</v>
       </c>
       <c r="D129" s="431">
         <v>2011</v>
@@ -8309,13 +8308,13 @@
       <c r="H129" s="279">
         <v>19</v>
       </c>
-      <c r="I129" s="465" t="s">
-        <v>511</v>
+      <c r="I129" s="468" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C130" s="466" t="s">
-        <v>506</v>
+      <c r="C130" s="469" t="s">
+        <v>505</v>
       </c>
       <c r="D130" s="275">
         <v>2012</v>
@@ -8332,11 +8331,11 @@
       <c r="H130" s="432">
         <v>19</v>
       </c>
-      <c r="I130" s="466"/>
+      <c r="I130" s="469"/>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C131" s="466" t="s">
-        <v>506</v>
+      <c r="C131" s="469" t="s">
+        <v>505</v>
       </c>
       <c r="D131" s="275">
         <v>2013</v>
@@ -8353,11 +8352,11 @@
       <c r="H131" s="432">
         <v>19</v>
       </c>
-      <c r="I131" s="466"/>
+      <c r="I131" s="469"/>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C132" s="466" t="s">
-        <v>506</v>
+      <c r="C132" s="469" t="s">
+        <v>505</v>
       </c>
       <c r="D132" s="275">
         <v>2014</v>
@@ -8374,11 +8373,11 @@
       <c r="H132" s="432">
         <v>27</v>
       </c>
-      <c r="I132" s="466"/>
+      <c r="I132" s="469"/>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C133" s="466" t="s">
-        <v>506</v>
+      <c r="C133" s="469" t="s">
+        <v>505</v>
       </c>
       <c r="D133" s="275">
         <v>2015</v>
@@ -8395,11 +8394,11 @@
       <c r="H133" s="432">
         <v>28</v>
       </c>
-      <c r="I133" s="466"/>
+      <c r="I133" s="469"/>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C134" s="466" t="s">
-        <v>506</v>
+      <c r="C134" s="469" t="s">
+        <v>505</v>
       </c>
       <c r="D134" s="275">
         <v>2016</v>
@@ -8416,11 +8415,11 @@
       <c r="H134" s="432">
         <v>39</v>
       </c>
-      <c r="I134" s="466"/>
+      <c r="I134" s="469"/>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C135" s="466" t="s">
-        <v>506</v>
+      <c r="C135" s="469" t="s">
+        <v>505</v>
       </c>
       <c r="D135" s="275">
         <v>2017</v>
@@ -8437,11 +8436,11 @@
       <c r="H135" s="432">
         <v>39</v>
       </c>
-      <c r="I135" s="466"/>
+      <c r="I135" s="469"/>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C136" s="466" t="s">
-        <v>506</v>
+      <c r="C136" s="469" t="s">
+        <v>505</v>
       </c>
       <c r="D136" s="275">
         <v>2018</v>
@@ -8458,11 +8457,11 @@
       <c r="H136" s="432">
         <v>39</v>
       </c>
-      <c r="I136" s="466"/>
+      <c r="I136" s="469"/>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C137" s="467" t="s">
-        <v>506</v>
+      <c r="C137" s="470" t="s">
+        <v>505</v>
       </c>
       <c r="D137" s="433">
         <v>2019</v>
@@ -8479,11 +8478,11 @@
       <c r="H137" s="280">
         <v>39</v>
       </c>
-      <c r="I137" s="467"/>
+      <c r="I137" s="470"/>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C138" s="465" t="s">
-        <v>507</v>
+      <c r="C138" s="468" t="s">
+        <v>506</v>
       </c>
       <c r="D138" s="431">
         <v>2011</v>
@@ -8500,13 +8499,13 @@
       <c r="H138" s="279">
         <v>5</v>
       </c>
-      <c r="I138" s="465" t="s">
-        <v>511</v>
+      <c r="I138" s="468" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C139" s="466" t="s">
-        <v>507</v>
+      <c r="C139" s="469" t="s">
+        <v>506</v>
       </c>
       <c r="D139" s="275">
         <v>2012</v>
@@ -8523,11 +8522,11 @@
       <c r="H139" s="432">
         <v>5</v>
       </c>
-      <c r="I139" s="466"/>
+      <c r="I139" s="469"/>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C140" s="466" t="s">
-        <v>507</v>
+      <c r="C140" s="469" t="s">
+        <v>506</v>
       </c>
       <c r="D140" s="275">
         <v>2013</v>
@@ -8544,11 +8543,11 @@
       <c r="H140" s="432">
         <v>8</v>
       </c>
-      <c r="I140" s="466"/>
+      <c r="I140" s="469"/>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C141" s="466" t="s">
-        <v>507</v>
+      <c r="C141" s="469" t="s">
+        <v>506</v>
       </c>
       <c r="D141" s="275">
         <v>2014</v>
@@ -8565,11 +8564,11 @@
       <c r="H141" s="432">
         <v>8</v>
       </c>
-      <c r="I141" s="466"/>
+      <c r="I141" s="469"/>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C142" s="466" t="s">
-        <v>507</v>
+      <c r="C142" s="469" t="s">
+        <v>506</v>
       </c>
       <c r="D142" s="275">
         <v>2015</v>
@@ -8586,11 +8585,11 @@
       <c r="H142" s="432">
         <v>13</v>
       </c>
-      <c r="I142" s="466"/>
+      <c r="I142" s="469"/>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C143" s="466" t="s">
-        <v>507</v>
+      <c r="C143" s="469" t="s">
+        <v>506</v>
       </c>
       <c r="D143" s="275">
         <v>2016</v>
@@ -8607,11 +8606,11 @@
       <c r="H143" s="432">
         <v>13</v>
       </c>
-      <c r="I143" s="466"/>
+      <c r="I143" s="469"/>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C144" s="466" t="s">
-        <v>507</v>
+      <c r="C144" s="469" t="s">
+        <v>506</v>
       </c>
       <c r="D144" s="275">
         <v>2017</v>
@@ -8628,11 +8627,11 @@
       <c r="H144" s="432">
         <v>16</v>
       </c>
-      <c r="I144" s="466"/>
+      <c r="I144" s="469"/>
     </row>
     <row r="145" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C145" s="466" t="s">
-        <v>507</v>
+      <c r="C145" s="469" t="s">
+        <v>506</v>
       </c>
       <c r="D145" s="275">
         <v>2018</v>
@@ -8649,11 +8648,11 @@
       <c r="H145" s="432">
         <v>16</v>
       </c>
-      <c r="I145" s="466"/>
+      <c r="I145" s="469"/>
     </row>
     <row r="146" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C146" s="467" t="s">
-        <v>507</v>
+      <c r="C146" s="470" t="s">
+        <v>506</v>
       </c>
       <c r="D146" s="433">
         <v>2019</v>
@@ -8670,11 +8669,11 @@
       <c r="H146" s="280">
         <v>16</v>
       </c>
-      <c r="I146" s="467"/>
+      <c r="I146" s="470"/>
     </row>
     <row r="147" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C147" s="465" t="s">
-        <v>508</v>
+      <c r="C147" s="468" t="s">
+        <v>507</v>
       </c>
       <c r="D147" s="431">
         <v>2011</v>
@@ -8691,13 +8690,13 @@
       <c r="H147" s="279">
         <v>3</v>
       </c>
-      <c r="I147" s="465" t="s">
-        <v>511</v>
+      <c r="I147" s="468" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="148" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C148" s="466" t="s">
-        <v>508</v>
+      <c r="C148" s="469" t="s">
+        <v>507</v>
       </c>
       <c r="D148" s="275">
         <v>2012</v>
@@ -8714,11 +8713,11 @@
       <c r="H148" s="432">
         <v>7</v>
       </c>
-      <c r="I148" s="466"/>
+      <c r="I148" s="469"/>
     </row>
     <row r="149" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C149" s="466" t="s">
-        <v>508</v>
+      <c r="C149" s="469" t="s">
+        <v>507</v>
       </c>
       <c r="D149" s="275">
         <v>2013</v>
@@ -8735,11 +8734,11 @@
       <c r="H149" s="432">
         <v>7</v>
       </c>
-      <c r="I149" s="466"/>
+      <c r="I149" s="469"/>
     </row>
     <row r="150" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C150" s="466" t="s">
-        <v>508</v>
+      <c r="C150" s="469" t="s">
+        <v>507</v>
       </c>
       <c r="D150" s="275">
         <v>2014</v>
@@ -8756,11 +8755,11 @@
       <c r="H150" s="432">
         <v>7</v>
       </c>
-      <c r="I150" s="466"/>
+      <c r="I150" s="469"/>
     </row>
     <row r="151" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C151" s="466" t="s">
-        <v>508</v>
+      <c r="C151" s="469" t="s">
+        <v>507</v>
       </c>
       <c r="D151" s="275">
         <v>2015</v>
@@ -8777,11 +8776,11 @@
       <c r="H151" s="432">
         <v>8</v>
       </c>
-      <c r="I151" s="466"/>
+      <c r="I151" s="469"/>
     </row>
     <row r="152" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C152" s="466" t="s">
-        <v>508</v>
+      <c r="C152" s="469" t="s">
+        <v>507</v>
       </c>
       <c r="D152" s="275">
         <v>2016</v>
@@ -8798,11 +8797,11 @@
       <c r="H152" s="432">
         <v>6</v>
       </c>
-      <c r="I152" s="466"/>
+      <c r="I152" s="469"/>
     </row>
     <row r="153" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C153" s="466" t="s">
-        <v>508</v>
+      <c r="C153" s="469" t="s">
+        <v>507</v>
       </c>
       <c r="D153" s="275">
         <v>2017</v>
@@ -8819,11 +8818,11 @@
       <c r="H153" s="432">
         <v>6</v>
       </c>
-      <c r="I153" s="466"/>
+      <c r="I153" s="469"/>
     </row>
     <row r="154" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C154" s="466" t="s">
-        <v>508</v>
+      <c r="C154" s="469" t="s">
+        <v>507</v>
       </c>
       <c r="D154" s="275">
         <v>2018</v>
@@ -8840,11 +8839,11 @@
       <c r="H154" s="432">
         <v>6</v>
       </c>
-      <c r="I154" s="466"/>
+      <c r="I154" s="469"/>
     </row>
     <row r="155" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C155" s="467" t="s">
-        <v>508</v>
+      <c r="C155" s="470" t="s">
+        <v>507</v>
       </c>
       <c r="D155" s="433">
         <v>2019</v>
@@ -8861,11 +8860,11 @@
       <c r="H155" s="280">
         <v>6</v>
       </c>
-      <c r="I155" s="467"/>
+      <c r="I155" s="470"/>
     </row>
     <row r="156" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C156" s="465" t="s">
-        <v>509</v>
+      <c r="C156" s="468" t="s">
+        <v>508</v>
       </c>
       <c r="D156" s="431">
         <v>2011</v>
@@ -8882,8 +8881,8 @@
       <c r="H156" s="279">
         <v>1882</v>
       </c>
-      <c r="I156" s="465" t="s">
-        <v>510</v>
+      <c r="I156" s="468" t="s">
+        <v>509</v>
       </c>
       <c r="J156" s="436">
         <f>AVERAGE(G156:G164)</f>
@@ -8891,8 +8890,8 @@
       </c>
     </row>
     <row r="157" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C157" s="466" t="s">
-        <v>509</v>
+      <c r="C157" s="469" t="s">
+        <v>508</v>
       </c>
       <c r="D157" s="275">
         <v>2012</v>
@@ -8909,11 +8908,11 @@
       <c r="H157" s="432">
         <v>1882</v>
       </c>
-      <c r="I157" s="466"/>
+      <c r="I157" s="469"/>
     </row>
     <row r="158" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C158" s="466" t="s">
-        <v>509</v>
+      <c r="C158" s="469" t="s">
+        <v>508</v>
       </c>
       <c r="D158" s="275">
         <v>2013</v>
@@ -8930,11 +8929,11 @@
       <c r="H158" s="432">
         <v>1977</v>
       </c>
-      <c r="I158" s="466"/>
+      <c r="I158" s="469"/>
     </row>
     <row r="159" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C159" s="466" t="s">
-        <v>509</v>
+      <c r="C159" s="469" t="s">
+        <v>508</v>
       </c>
       <c r="D159" s="275">
         <v>2014</v>
@@ -8951,11 +8950,11 @@
       <c r="H159" s="432">
         <v>2028</v>
       </c>
-      <c r="I159" s="466"/>
+      <c r="I159" s="469"/>
     </row>
     <row r="160" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C160" s="466" t="s">
-        <v>509</v>
+      <c r="C160" s="469" t="s">
+        <v>508</v>
       </c>
       <c r="D160" s="275">
         <v>2015</v>
@@ -8972,11 +8971,11 @@
       <c r="H160" s="432">
         <v>2032</v>
       </c>
-      <c r="I160" s="466"/>
+      <c r="I160" s="469"/>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C161" s="466" t="s">
-        <v>509</v>
+      <c r="C161" s="469" t="s">
+        <v>508</v>
       </c>
       <c r="D161" s="275">
         <v>2016</v>
@@ -8993,11 +8992,11 @@
       <c r="H161" s="432">
         <v>2041</v>
       </c>
-      <c r="I161" s="466"/>
+      <c r="I161" s="469"/>
     </row>
     <row r="162" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C162" s="466" t="s">
-        <v>509</v>
+      <c r="C162" s="469" t="s">
+        <v>508</v>
       </c>
       <c r="D162" s="275">
         <v>2017</v>
@@ -9014,11 +9013,11 @@
       <c r="H162" s="432">
         <v>1981</v>
       </c>
-      <c r="I162" s="466"/>
+      <c r="I162" s="469"/>
     </row>
     <row r="163" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C163" s="466" t="s">
-        <v>509</v>
+      <c r="C163" s="469" t="s">
+        <v>508</v>
       </c>
       <c r="D163" s="275">
         <v>2018</v>
@@ -9035,11 +9034,11 @@
       <c r="H163" s="432">
         <v>2029</v>
       </c>
-      <c r="I163" s="466"/>
+      <c r="I163" s="469"/>
     </row>
     <row r="164" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C164" s="467" t="s">
-        <v>509</v>
+      <c r="C164" s="470" t="s">
+        <v>508</v>
       </c>
       <c r="D164" s="433">
         <v>2019</v>
@@ -9056,10 +9055,34 @@
       <c r="H164" s="280">
         <v>2032</v>
       </c>
-      <c r="I164" s="467"/>
+      <c r="I164" s="470"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="C84:C92"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="C93:C101"/>
+    <mergeCell ref="C102:C110"/>
+    <mergeCell ref="C111:C119"/>
+    <mergeCell ref="C120:C128"/>
+    <mergeCell ref="C129:C137"/>
     <mergeCell ref="C138:C146"/>
     <mergeCell ref="C147:C155"/>
     <mergeCell ref="C156:C164"/>
@@ -9076,30 +9099,6 @@
     <mergeCell ref="I138:I146"/>
     <mergeCell ref="I147:I155"/>
     <mergeCell ref="I156:I164"/>
-    <mergeCell ref="C93:C101"/>
-    <mergeCell ref="C102:C110"/>
-    <mergeCell ref="C111:C119"/>
-    <mergeCell ref="C120:C128"/>
-    <mergeCell ref="C129:C137"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="C84:C92"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="C66:C74"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9111,10 +9110,10 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:K103"/>
+  <dimension ref="B2:K104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9153,12 +9152,12 @@
       <c r="K4" s="92"/>
     </row>
     <row r="5" spans="2:11" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="460" t="s">
-        <v>415</v>
-      </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="486"/>
-      <c r="E5" s="487"/>
+      <c r="B5" s="463" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="489"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="490"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
@@ -9255,10 +9254,10 @@
         <v>221</v>
       </c>
       <c r="E11" s="322" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F11" s="323">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="G11" s="323">
         <v>0.5</v>
@@ -9282,20 +9281,20 @@
         <v>222</v>
       </c>
       <c r="E12" s="322" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F12" s="323">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="G12" s="323">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="H12" s="323">
         <v>0</v>
       </c>
       <c r="I12" s="324">
         <f>G12</f>
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="J12" s="320"/>
       <c r="K12" s="325"/>
@@ -9309,7 +9308,7 @@
         <v>223</v>
       </c>
       <c r="E13" s="322" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F13" s="323">
         <v>0.183</v>
@@ -9360,10 +9359,10 @@
         <v>221</v>
       </c>
       <c r="E16" s="322" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F16" s="323">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="G16" s="323">
         <v>0.5</v>
@@ -9387,20 +9386,20 @@
         <v>222</v>
       </c>
       <c r="E17" s="322" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F17" s="323">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="G17" s="323">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="H17" s="323">
         <v>0</v>
       </c>
       <c r="I17" s="324">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="J17" s="320"/>
       <c r="K17" s="325"/>
@@ -9414,7 +9413,7 @@
         <v>223</v>
       </c>
       <c r="E18" s="322" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F18" s="323">
         <v>0.183</v>
@@ -9465,10 +9464,10 @@
         <v>221</v>
       </c>
       <c r="E21" s="322" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F21" s="323">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="G21" s="323">
         <v>0.5</v>
@@ -9492,20 +9491,20 @@
         <v>222</v>
       </c>
       <c r="E22" s="322" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F22" s="323">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="G22" s="323">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="H22" s="323">
         <v>0</v>
       </c>
       <c r="I22" s="324">
         <f t="shared" si="1"/>
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="J22" s="320"/>
       <c r="K22" s="325"/>
@@ -9519,7 +9518,7 @@
         <v>223</v>
       </c>
       <c r="E23" s="322" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F23" s="323">
         <v>0.183</v>
@@ -9573,7 +9572,7 @@
         <v>226</v>
       </c>
       <c r="F26" s="323">
-        <v>0.2475</v>
+        <v>0.27</v>
       </c>
       <c r="G26" s="323">
         <v>0.35</v>
@@ -9582,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="324">
-        <f t="shared" ref="I26:I30" si="2">G26</f>
+        <f t="shared" ref="I26:I31" si="2">G26</f>
         <v>0.35</v>
       </c>
       <c r="J26" s="320"/>
@@ -9645,133 +9644,126 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="30"/>
       <c r="C29" s="320" t="s">
+        <v>525</v>
+      </c>
+      <c r="D29" s="494" t="s">
+        <v>526</v>
+      </c>
+      <c r="E29" s="322"/>
+      <c r="F29" s="323">
+        <v>0.37027950935049264</v>
+      </c>
+      <c r="G29" s="323">
+        <v>2.5909913533078623E-2</v>
+      </c>
+      <c r="H29" s="323"/>
+      <c r="I29" s="324"/>
+      <c r="J29" s="320"/>
+      <c r="K29" s="325"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="320" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="321" t="s">
+      <c r="D30" s="321" t="s">
         <v>230</v>
       </c>
-      <c r="E29" s="322" t="s">
+      <c r="E30" s="322" t="s">
         <v>231</v>
       </c>
-      <c r="F29" s="323">
+      <c r="F30" s="323">
         <v>0.4</v>
       </c>
-      <c r="G29" s="323">
+      <c r="G30" s="323">
         <v>0.15</v>
       </c>
-      <c r="H29" s="323">
-        <v>0</v>
-      </c>
-      <c r="I29" s="324">
+      <c r="H30" s="323">
+        <v>0</v>
+      </c>
+      <c r="I30" s="324">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="J29" s="320"/>
-      <c r="K29" s="112" t="s">
+      <c r="J30" s="320"/>
+      <c r="K30" s="112" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="391"/>
-      <c r="C30" t="s">
+    <row r="31" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="391"/>
+      <c r="C31" s="320" t="s">
+        <v>521</v>
+      </c>
+      <c r="D31" s="321" t="s">
         <v>522</v>
       </c>
-      <c r="D30" s="432" t="s">
+      <c r="E31" s="449" t="s">
         <v>523</v>
       </c>
-      <c r="E30" s="449" t="s">
-        <v>524</v>
-      </c>
-      <c r="F30" s="448">
+      <c r="F31" s="448">
         <v>0.183</v>
       </c>
-      <c r="G30" s="448">
+      <c r="G31" s="448">
         <v>0.47</v>
       </c>
-      <c r="H30" s="323">
-        <v>0</v>
-      </c>
-      <c r="I30" s="324">
+      <c r="H31" s="323">
+        <v>0</v>
+      </c>
+      <c r="I31" s="324">
         <f t="shared" si="2"/>
         <v>0.47</v>
       </c>
-      <c r="J30"/>
-      <c r="K30" s="450"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="30"/>
-      <c r="C31" s="326"/>
-      <c r="D31" s="327"/>
-      <c r="E31" s="328"/>
-      <c r="F31" s="329"/>
-      <c r="G31" s="329"/>
-      <c r="H31" s="329"/>
-      <c r="I31" s="332"/>
-      <c r="J31" s="326"/>
-      <c r="K31" s="331"/>
+      <c r="J31"/>
+      <c r="K31" s="450"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="326"/>
+      <c r="D32" s="327"/>
+      <c r="E32" s="328"/>
+      <c r="F32" s="329"/>
+      <c r="G32" s="329"/>
+      <c r="H32" s="329"/>
+      <c r="I32" s="332"/>
+      <c r="J32" s="326"/>
+      <c r="K32" s="331"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="322"/>
-      <c r="F32" s="323"/>
-      <c r="G32" s="323"/>
-      <c r="H32" s="323"/>
-      <c r="I32" s="333"/>
-      <c r="K32" s="25"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="30"/>
-      <c r="C33" s="320" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="321" t="s">
-        <v>221</v>
-      </c>
-      <c r="E33" s="322" t="s">
-        <v>233</v>
-      </c>
-      <c r="F33" s="323">
-        <v>0.433</v>
-      </c>
-      <c r="G33" s="323">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="H33" s="323">
-        <v>0</v>
-      </c>
-      <c r="I33" s="324">
-        <f t="shared" ref="I33:I36" si="3">G33</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="J33" s="320"/>
-      <c r="K33" s="325"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="322"/>
+      <c r="F33" s="323"/>
+      <c r="G33" s="323"/>
+      <c r="H33" s="323"/>
+      <c r="I33" s="333"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="30"/>
       <c r="C34" s="320" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="D34" s="321" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E34" s="322" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F34" s="323">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="G34" s="323">
-        <v>0.14000000000000001</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="H34" s="323">
         <v>0</v>
       </c>
       <c r="I34" s="324">
-        <f t="shared" si="3"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" ref="I34:I37" si="3">G34</f>
+        <v>0.30499999999999999</v>
       </c>
       <c r="J34" s="320"/>
       <c r="K34" s="325"/>
@@ -9779,45 +9771,43 @@
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
       <c r="C35" s="320" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D35" s="321" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E35" s="322" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F35" s="323">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="G35" s="323">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="H35" s="323">
         <v>0</v>
       </c>
       <c r="I35" s="324">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="J35" s="320"/>
-      <c r="K35" s="112" t="s">
-        <v>232</v>
-      </c>
+      <c r="K35" s="325"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="320" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D36" s="321" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E36" s="322" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F36" s="323">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="G36" s="323">
         <v>0.15</v>
@@ -9836,88 +9826,103 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="30"/>
-      <c r="C37" s="326"/>
-      <c r="D37" s="327"/>
-      <c r="E37" s="328"/>
-      <c r="F37" s="329"/>
-      <c r="G37" s="329"/>
-      <c r="H37" s="329"/>
-      <c r="I37" s="330"/>
-      <c r="J37" s="326"/>
-      <c r="K37" s="331"/>
+      <c r="C37" s="320" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="321" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="322" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="323">
+        <v>0.4</v>
+      </c>
+      <c r="G37" s="323">
+        <v>0.15</v>
+      </c>
+      <c r="H37" s="323">
+        <v>0</v>
+      </c>
+      <c r="I37" s="324">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="J37" s="320"/>
+      <c r="K37" s="112" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="326"/>
+      <c r="D38" s="327"/>
+      <c r="E38" s="328"/>
+      <c r="F38" s="329"/>
+      <c r="G38" s="329"/>
+      <c r="H38" s="329"/>
+      <c r="I38" s="330"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="331"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="322"/>
-      <c r="F38" s="323"/>
-      <c r="G38" s="323"/>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="24"/>
-      <c r="C39" s="320" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="322"/>
+      <c r="F39" s="323"/>
+      <c r="G39" s="323"/>
+      <c r="H39" s="323"/>
+      <c r="I39" s="324"/>
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="24"/>
+      <c r="C40" s="320" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="321" t="s">
+      <c r="D40" s="321" t="s">
         <v>239</v>
       </c>
-      <c r="E39" s="322" t="s">
+      <c r="E40" s="322" t="s">
         <v>240</v>
       </c>
-      <c r="F39" s="323">
+      <c r="F40" s="323">
         <v>0.20449999999999999</v>
       </c>
-      <c r="G39" s="323">
+      <c r="G40" s="323">
         <v>0.19950000000000001</v>
       </c>
-      <c r="H39" s="323">
-        <v>0</v>
-      </c>
-      <c r="I39" s="324">
-        <f>G39</f>
+      <c r="H40" s="323">
+        <v>0</v>
+      </c>
+      <c r="I40" s="324">
+        <f>G40</f>
         <v>0.19950000000000001</v>
       </c>
-      <c r="J39" s="320"/>
-      <c r="K39" s="325"/>
-    </row>
-    <row r="40" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="45"/>
-      <c r="C40" s="334"/>
-      <c r="D40" s="335"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="334"/>
-      <c r="J40" s="334"/>
-      <c r="K40" s="336"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H42" s="317" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="307"/>
-      <c r="C43" s="307"/>
-      <c r="D43" s="307"/>
-      <c r="E43" s="307"/>
-      <c r="F43" s="307"/>
-      <c r="G43" s="307"/>
-      <c r="H43" s="307"/>
-      <c r="I43" s="307"/>
-      <c r="J43" s="307"/>
-      <c r="K43" s="307"/>
-    </row>
-    <row r="44" spans="2:11" s="158" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B44" s="308" t="s">
-        <v>293</v>
-      </c>
+      <c r="J40" s="320"/>
+      <c r="K40" s="325"/>
+    </row>
+    <row r="41" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="45"/>
+      <c r="C41" s="334"/>
+      <c r="D41" s="335"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="334"/>
+      <c r="J41" s="334"/>
+      <c r="K41" s="336"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H43" s="317" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="307"/>
       <c r="C44" s="307"/>
       <c r="D44" s="307"/>
       <c r="E44" s="307"/>
@@ -9928,8 +9933,10 @@
       <c r="J44" s="307"/>
       <c r="K44" s="307"/>
     </row>
-    <row r="45" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="307"/>
+    <row r="45" spans="2:11" s="158" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B45" s="308" t="s">
+        <v>293</v>
+      </c>
       <c r="C45" s="307"/>
       <c r="D45" s="307"/>
       <c r="E45" s="307"/>
@@ -9941,137 +9948,125 @@
       <c r="K45" s="307"/>
     </row>
     <row r="46" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="309" t="s">
+      <c r="B46" s="307"/>
+      <c r="C46" s="307"/>
+      <c r="D46" s="307"/>
+      <c r="E46" s="307"/>
+      <c r="F46" s="307"/>
+      <c r="G46" s="307"/>
+      <c r="H46" s="307"/>
+      <c r="I46" s="307"/>
+      <c r="J46" s="307"/>
+      <c r="K46" s="307"/>
+    </row>
+    <row r="47" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="309" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="253"/>
-      <c r="D46" s="253"/>
-      <c r="E46" s="253"/>
-      <c r="F46" s="253"/>
-      <c r="G46" s="253"/>
-      <c r="H46" s="253"/>
-      <c r="I46" s="253"/>
-      <c r="J46" s="253"/>
-      <c r="K46" s="310"/>
-    </row>
-    <row r="47" spans="2:11" s="158" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="488" t="s">
-        <v>416</v>
-      </c>
-      <c r="C47" s="489"/>
-      <c r="D47" s="489"/>
-      <c r="E47" s="489"/>
-      <c r="F47" s="489"/>
-      <c r="G47" s="489"/>
-      <c r="H47" s="489"/>
-      <c r="I47" s="489"/>
-      <c r="J47" s="489"/>
-      <c r="K47" s="490"/>
-    </row>
-    <row r="48" spans="2:11" s="158" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="307"/>
-      <c r="C48" s="307"/>
-      <c r="D48" s="307"/>
-      <c r="E48" s="307"/>
-      <c r="F48" s="307"/>
-      <c r="G48" s="307"/>
-      <c r="H48" s="307"/>
-      <c r="I48" s="307"/>
-      <c r="J48" s="307"/>
-      <c r="K48" s="307"/>
-    </row>
-    <row r="49" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="376" t="s">
+      <c r="C47" s="253"/>
+      <c r="D47" s="253"/>
+      <c r="E47" s="253"/>
+      <c r="F47" s="253"/>
+      <c r="G47" s="253"/>
+      <c r="H47" s="253"/>
+      <c r="I47" s="253"/>
+      <c r="J47" s="253"/>
+      <c r="K47" s="310"/>
+    </row>
+    <row r="48" spans="2:11" s="158" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="491" t="s">
+        <v>415</v>
+      </c>
+      <c r="C48" s="492"/>
+      <c r="D48" s="492"/>
+      <c r="E48" s="492"/>
+      <c r="F48" s="492"/>
+      <c r="G48" s="492"/>
+      <c r="H48" s="492"/>
+      <c r="I48" s="492"/>
+      <c r="J48" s="492"/>
+      <c r="K48" s="493"/>
+    </row>
+    <row r="49" spans="2:11" s="158" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="307"/>
+      <c r="C49" s="307"/>
+      <c r="D49" s="307"/>
+      <c r="E49" s="307"/>
+      <c r="F49" s="307"/>
+      <c r="G49" s="307"/>
+      <c r="H49" s="307"/>
+      <c r="I49" s="307"/>
+      <c r="J49" s="307"/>
+      <c r="K49" s="307"/>
+    </row>
+    <row r="50" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="376" t="s">
         <v>294</v>
       </c>
-      <c r="C49" s="377"/>
-      <c r="D49" s="377"/>
-      <c r="E49" s="377"/>
-      <c r="F49" s="377"/>
-      <c r="G49" s="377"/>
-      <c r="H49" s="377"/>
-      <c r="I49" s="377"/>
-      <c r="J49" s="377"/>
-      <c r="K49" s="378"/>
-    </row>
-    <row r="50" spans="2:11" s="158" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="379"/>
-      <c r="E50" s="380" t="s">
+      <c r="C50" s="377"/>
+      <c r="D50" s="377"/>
+      <c r="E50" s="377"/>
+      <c r="F50" s="377"/>
+      <c r="G50" s="377"/>
+      <c r="H50" s="377"/>
+      <c r="I50" s="377"/>
+      <c r="J50" s="377"/>
+      <c r="K50" s="378"/>
+    </row>
+    <row r="51" spans="2:11" s="158" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="379"/>
+      <c r="E51" s="380" t="s">
         <v>217</v>
       </c>
-      <c r="F50" s="380" t="s">
+      <c r="F51" s="380" t="s">
         <v>295</v>
       </c>
-      <c r="G50" s="381" t="s">
+      <c r="G51" s="381" t="s">
         <v>295</v>
       </c>
-      <c r="H50" s="382" t="s">
+      <c r="H51" s="382" t="s">
         <v>296</v>
       </c>
-      <c r="I50" s="382" t="s">
+      <c r="I51" s="382" t="s">
         <v>216</v>
       </c>
-      <c r="J50" s="382"/>
-      <c r="K50" s="383" t="s">
+      <c r="J51" s="382"/>
+      <c r="K51" s="383" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="2:11" s="158" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="384" t="s">
+    <row r="52" spans="2:11" s="158" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="384" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="385" t="s">
+      <c r="C52" s="385" t="s">
         <v>211</v>
       </c>
-      <c r="D51" s="386" t="s">
+      <c r="D52" s="386" t="s">
         <v>212</v>
       </c>
-      <c r="E51" s="387"/>
-      <c r="F51" s="388" t="s">
+      <c r="E52" s="387"/>
+      <c r="F52" s="388" t="s">
         <v>218</v>
       </c>
-      <c r="G51" s="389" t="s">
+      <c r="G52" s="389" t="s">
         <v>219</v>
       </c>
-      <c r="H51" s="388"/>
-      <c r="I51" s="389"/>
-      <c r="J51" s="389"/>
-      <c r="K51" s="390"/>
-    </row>
-    <row r="52" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="391" t="s">
+      <c r="H52" s="388"/>
+      <c r="I52" s="389"/>
+      <c r="J52" s="389"/>
+      <c r="K52" s="390"/>
+    </row>
+    <row r="53" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="391" t="s">
         <v>297</v>
       </c>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52" s="392"/>
-    </row>
-    <row r="53" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B53" s="379"/>
-      <c r="C53" t="s">
-        <v>298</v>
-      </c>
-      <c r="D53" t="s">
-        <v>299</v>
-      </c>
-      <c r="E53" s="274" t="s">
-        <v>300</v>
-      </c>
-      <c r="F53">
-        <v>0.36</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" s="393">
-        <v>0.36</v>
-      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53" s="392"/>
@@ -10079,22 +10074,22 @@
     <row r="54" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="379"/>
       <c r="C54" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D54" t="s">
         <v>299</v>
       </c>
       <c r="E54" s="274" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F54">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" s="393">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -10103,22 +10098,22 @@
     <row r="55" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="379"/>
       <c r="C55" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D55" t="s">
         <v>299</v>
       </c>
       <c r="E55" s="274" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F55">
-        <v>0.36099999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" s="393">
-        <v>0.36099999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -10127,22 +10122,22 @@
     <row r="56" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="379"/>
       <c r="C56" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D56" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E56" s="274" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F56">
-        <v>0.42</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" s="393">
-        <v>0.42</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -10151,22 +10146,22 @@
     <row r="57" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="379"/>
       <c r="C57" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D57" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E57" s="274" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F57">
-        <v>0.45300000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" s="393">
-        <v>0.45300000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
@@ -10175,22 +10170,22 @@
     <row r="58" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B58" s="379"/>
       <c r="C58" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D58" t="s">
         <v>299</v>
       </c>
       <c r="E58" s="274" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F58">
-        <v>0.373</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" s="393">
-        <v>0.373</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="I58"/>
       <c r="J58"/>
@@ -10199,22 +10194,22 @@
     <row r="59" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B59" s="379"/>
       <c r="C59" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>299</v>
       </c>
       <c r="E59" s="274" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F59">
-        <v>0.4</v>
+        <v>0.373</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" s="393">
-        <v>0.4</v>
+        <v>0.373</v>
       </c>
       <c r="I59"/>
       <c r="J59"/>
@@ -10223,70 +10218,70 @@
     <row r="60" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B60" s="379"/>
       <c r="C60" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D60" t="s">
         <v>235</v>
       </c>
       <c r="E60" s="274" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F60">
-        <v>0.30499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" s="393">
-        <v>0.30499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60" s="392"/>
     </row>
-    <row r="61" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="379"/>
       <c r="C61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D61" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E61" s="274" t="s">
-        <v>316</v>
-      </c>
-      <c r="F61" s="159">
-        <v>0.48</v>
+        <v>314</v>
+      </c>
+      <c r="F61">
+        <v>0.30499999999999999</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" s="393">
-        <v>0.48</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" s="392"/>
     </row>
-    <row r="62" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="379"/>
       <c r="C62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D62" t="s">
         <v>221</v>
       </c>
       <c r="E62" s="274" t="s">
-        <v>318</v>
-      </c>
-      <c r="F62">
-        <v>0.34</v>
+        <v>316</v>
+      </c>
+      <c r="F62" s="159">
+        <v>0.48</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" s="393">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
@@ -10295,22 +10290,22 @@
     <row r="63" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="379"/>
       <c r="C63" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D63" t="s">
         <v>221</v>
       </c>
       <c r="E63" s="274" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F63">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" s="393">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
@@ -10319,22 +10314,22 @@
     <row r="64" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="379"/>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D64" t="s">
         <v>221</v>
       </c>
       <c r="E64" s="274" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F64">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" s="393">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
@@ -10343,22 +10338,22 @@
     <row r="65" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="379"/>
       <c r="C65" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D65" t="s">
         <v>221</v>
       </c>
       <c r="E65" s="274" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F65">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" s="393">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
@@ -10370,19 +10365,19 @@
         <v>301</v>
       </c>
       <c r="D66" t="s">
-        <v>322</v>
+        <v>221</v>
       </c>
       <c r="E66" s="274" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F66">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" s="393">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
@@ -10391,22 +10386,22 @@
     <row r="67" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="379"/>
       <c r="C67" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D67" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E67" s="274" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F67">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" s="393">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
@@ -10415,22 +10410,22 @@
     <row r="68" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="379"/>
       <c r="C68" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="E68" s="274" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F68">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" s="393">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
@@ -10439,22 +10434,22 @@
     <row r="69" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="379"/>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="D69" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="E69" s="274" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F69">
-        <v>0.36930000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" s="393">
-        <v>0.36930000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
@@ -10463,13 +10458,13 @@
     <row r="70" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="379"/>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D70" t="s">
         <v>327</v>
       </c>
       <c r="E70" s="274" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F70">
         <v>0.36930000000000002</v>
@@ -10487,22 +10482,22 @@
     <row r="71" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="379"/>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D71" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E71" s="274" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F71">
-        <v>0.98</v>
+        <v>0.36930000000000002</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" s="393">
-        <v>0.98</v>
+        <v>0.36930000000000002</v>
       </c>
       <c r="I71"/>
       <c r="J71"/>
@@ -10511,22 +10506,22 @@
     <row r="72" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="379"/>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D72" t="s">
         <v>330</v>
       </c>
       <c r="E72" s="274" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F72">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" s="393">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="I72"/>
       <c r="J72"/>
@@ -10535,22 +10530,22 @@
     <row r="73" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="379"/>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D73" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E73" s="274" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F73">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" s="393">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
@@ -10559,22 +10554,22 @@
     <row r="74" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="379"/>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D74" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E74" s="274" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F74">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" s="393">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
@@ -10583,13 +10578,13 @@
     <row r="75" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="379"/>
       <c r="C75" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s">
         <v>335</v>
       </c>
       <c r="E75" s="274" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F75">
         <v>0.17</v>
@@ -10607,13 +10602,13 @@
     <row r="76" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="379"/>
       <c r="C76" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D76" t="s">
         <v>335</v>
       </c>
       <c r="E76" s="274" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F76">
         <v>0.17</v>
@@ -10631,22 +10626,22 @@
     <row r="77" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="379"/>
       <c r="C77" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="D77" t="s">
         <v>335</v>
       </c>
       <c r="E77" s="274" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F77">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" s="393">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
@@ -10655,22 +10650,22 @@
     <row r="78" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="379"/>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D78" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E78" s="274" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F78">
-        <v>0.97</v>
+        <v>0.35</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" s="393">
-        <v>0.97</v>
+        <v>0.35</v>
       </c>
       <c r="I78"/>
       <c r="J78"/>
@@ -10679,13 +10674,13 @@
     <row r="79" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B79" s="379"/>
       <c r="C79" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D79" t="s">
         <v>342</v>
       </c>
       <c r="E79" s="274" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F79">
         <v>0.97</v>
@@ -10703,13 +10698,13 @@
     <row r="80" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="379"/>
       <c r="C80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D80" t="s">
         <v>342</v>
       </c>
       <c r="E80" s="274" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F80">
         <v>0.97</v>
@@ -10725,61 +10720,61 @@
       <c r="K80" s="392"/>
     </row>
     <row r="81" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B81" s="394"/>
-      <c r="C81" s="395"/>
-      <c r="D81" s="395"/>
-      <c r="E81" s="396"/>
-      <c r="F81" s="395"/>
-      <c r="G81" s="395"/>
-      <c r="H81" s="395"/>
-      <c r="I81" s="395"/>
-      <c r="J81" s="395"/>
-      <c r="K81" s="397"/>
-    </row>
-    <row r="82" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="391" t="s">
+      <c r="B81" s="379"/>
+      <c r="C81" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" t="s">
+        <v>342</v>
+      </c>
+      <c r="E81" s="274" t="s">
+        <v>345</v>
+      </c>
+      <c r="F81">
+        <v>0.97</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" s="393">
+        <v>0.97</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81" s="392"/>
+    </row>
+    <row r="82" spans="2:11" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B82" s="394"/>
+      <c r="C82" s="395"/>
+      <c r="D82" s="395"/>
+      <c r="E82" s="396"/>
+      <c r="F82" s="395"/>
+      <c r="G82" s="395"/>
+      <c r="H82" s="395"/>
+      <c r="I82" s="395"/>
+      <c r="J82" s="395"/>
+      <c r="K82" s="397"/>
+    </row>
+    <row r="83" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="391" t="s">
         <v>346</v>
       </c>
-      <c r="E82" s="398"/>
-      <c r="G82" s="399"/>
-      <c r="H82" s="399"/>
-      <c r="I82" s="399"/>
-      <c r="K82" s="400"/>
-    </row>
-    <row r="83" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="391"/>
-      <c r="C83" t="s">
-        <v>286</v>
-      </c>
-      <c r="D83" t="s">
-        <v>299</v>
-      </c>
-      <c r="E83" s="274" t="s">
-        <v>441</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83" s="401">
-        <v>0.72</v>
-      </c>
-      <c r="H83" s="401"/>
-      <c r="I83" s="401">
-        <v>0.72</v>
-      </c>
-      <c r="J83"/>
-      <c r="K83" s="392"/>
+      <c r="E83" s="398"/>
+      <c r="G83" s="399"/>
+      <c r="H83" s="399"/>
+      <c r="I83" s="399"/>
+      <c r="K83" s="400"/>
     </row>
     <row r="84" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="391"/>
       <c r="C84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>299</v>
       </c>
       <c r="E84" s="274" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -10797,23 +10792,23 @@
     <row r="85" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="391"/>
       <c r="C85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D85" t="s">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="E85" s="274" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" s="401">
-        <v>0.91500000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="H85" s="401"/>
       <c r="I85" s="401">
-        <v>0.91500000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="J85"/>
       <c r="K85" s="392"/>
@@ -10821,23 +10816,23 @@
     <row r="86" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="391"/>
       <c r="C86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D86" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="E86" s="274" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" s="401">
-        <v>0.92400000000000004</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="H86" s="401"/>
       <c r="I86" s="401">
-        <v>0.92400000000000004</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="J86"/>
       <c r="K86" s="392"/>
@@ -10845,23 +10840,23 @@
     <row r="87" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="391"/>
       <c r="C87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D87" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="E87" s="274" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" s="401">
-        <v>0.72</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="H87" s="401"/>
       <c r="I87" s="401">
-        <v>0.72</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="J87"/>
       <c r="K87" s="392"/>
@@ -10869,23 +10864,23 @@
     <row r="88" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="391"/>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E88" s="274" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" s="401">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="H88" s="401"/>
       <c r="I88" s="401">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="J88"/>
       <c r="K88" s="392"/>
@@ -10893,23 +10888,23 @@
     <row r="89" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="391"/>
       <c r="C89" t="s">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="D89" t="s">
-        <v>448</v>
+        <v>223</v>
       </c>
       <c r="E89" s="274" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" s="401">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H89" s="401"/>
       <c r="I89" s="401">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J89"/>
       <c r="K89" s="392"/>
@@ -10917,23 +10912,23 @@
     <row r="90" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="391"/>
       <c r="C90" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D90" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E90" s="274" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90" s="401">
-        <v>1.0959300000000001</v>
+        <v>1</v>
       </c>
       <c r="H90" s="401"/>
       <c r="I90" s="401">
-        <v>1.0959300000000001</v>
+        <v>1</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="392"/>
@@ -10941,23 +10936,23 @@
     <row r="91" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="391"/>
       <c r="C91" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D91" t="s">
-        <v>299</v>
+        <v>450</v>
       </c>
       <c r="E91" s="274" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91" s="401">
-        <v>0.72</v>
+        <v>1.0959300000000001</v>
       </c>
       <c r="H91" s="401"/>
       <c r="I91" s="401">
-        <v>0.72</v>
+        <v>1.0959300000000001</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="392"/>
@@ -10965,43 +10960,53 @@
     <row r="92" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="391"/>
       <c r="C92" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D92" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="E92" s="274" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92" s="401">
-        <v>0.92400000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="H92" s="401"/>
       <c r="I92" s="401">
-        <v>0.92400000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="392"/>
     </row>
     <row r="93" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="391"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93" s="274"/>
-      <c r="F93"/>
-      <c r="G93" s="401"/>
+      <c r="C93" t="s">
+        <v>454</v>
+      </c>
+      <c r="D93" t="s">
+        <v>322</v>
+      </c>
+      <c r="E93" s="274" t="s">
+        <v>453</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" s="401">
+        <v>0.92400000000000004</v>
+      </c>
       <c r="H93" s="401"/>
-      <c r="I93" s="401"/>
+      <c r="I93" s="401">
+        <v>0.92400000000000004</v>
+      </c>
       <c r="J93"/>
       <c r="K93" s="392"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" s="391" t="s">
-        <v>456</v>
-      </c>
+    <row r="94" spans="2:11" s="158" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="391"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" s="274"/>
@@ -11013,53 +11018,41 @@
       <c r="K94" s="392"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="391"/>
-      <c r="C95" s="402" t="s">
-        <v>457</v>
-      </c>
-      <c r="D95" s="402" t="s">
-        <v>458</v>
-      </c>
-      <c r="E95" s="274" t="s">
-        <v>229</v>
-      </c>
-      <c r="F95" s="323">
-        <v>0.433</v>
-      </c>
-      <c r="G95" s="323">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="H95" s="323">
-        <v>0.433</v>
-      </c>
-      <c r="I95" s="323">
-        <v>0.30499999999999999</v>
-      </c>
+      <c r="B95" s="391" t="s">
+        <v>455</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95" s="274"/>
+      <c r="F95"/>
+      <c r="G95" s="401"/>
+      <c r="H95" s="401"/>
+      <c r="I95" s="401"/>
       <c r="J95"/>
       <c r="K95" s="392"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="391"/>
       <c r="C96" s="402" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D96" s="402" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E96" s="274" t="s">
-        <v>227</v>
-      </c>
-      <c r="F96" s="402">
-        <v>0.43</v>
-      </c>
-      <c r="G96" s="333">
-        <v>0.47</v>
-      </c>
-      <c r="H96" s="401">
-        <v>0.43</v>
-      </c>
-      <c r="I96" s="401">
-        <v>0.47</v>
+        <v>229</v>
+      </c>
+      <c r="F96" s="323">
+        <v>0.433</v>
+      </c>
+      <c r="G96" s="323">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="H96" s="323">
+        <v>0.433</v>
+      </c>
+      <c r="I96" s="323">
+        <v>0.30499999999999999</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="392"/>
@@ -11067,25 +11060,25 @@
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="391"/>
       <c r="C97" s="402" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D97" s="402" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E97" s="274" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F97" s="402">
-        <v>0.2475</v>
+        <v>0.43</v>
       </c>
       <c r="G97" s="333">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="H97" s="401">
-        <v>0.2475</v>
+        <v>0.43</v>
       </c>
       <c r="I97" s="401">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="J97"/>
       <c r="K97" s="392"/>
@@ -11093,25 +11086,25 @@
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="391"/>
       <c r="C98" s="402" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D98" s="402" t="s">
-        <v>299</v>
+        <v>457</v>
       </c>
       <c r="E98" s="274" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F98" s="402">
-        <v>0.4</v>
+        <v>0.2475</v>
       </c>
       <c r="G98" s="333">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="H98" s="401">
-        <v>0.4</v>
+        <v>0.2475</v>
       </c>
       <c r="I98" s="401">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="392"/>
@@ -11119,45 +11112,57 @@
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="391"/>
       <c r="C99" s="402" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D99" s="402" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="E99" s="274" t="s">
-        <v>463</v>
+        <v>231</v>
       </c>
       <c r="F99" s="402">
-        <v>0.183</v>
+        <v>0.4</v>
       </c>
       <c r="G99" s="333">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="H99" s="401">
-        <v>0.183</v>
+        <v>0.4</v>
       </c>
       <c r="I99" s="401">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="J99"/>
       <c r="K99" s="392"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="391"/>
-      <c r="C100" s="402"/>
-      <c r="D100" s="402"/>
-      <c r="E100" s="274"/>
-      <c r="F100" s="402"/>
-      <c r="G100" s="333"/>
-      <c r="H100" s="401"/>
-      <c r="I100" s="401"/>
+      <c r="C100" s="402" t="s">
+        <v>461</v>
+      </c>
+      <c r="D100" s="402" t="s">
+        <v>223</v>
+      </c>
+      <c r="E100" s="274" t="s">
+        <v>462</v>
+      </c>
+      <c r="F100" s="402">
+        <v>0.183</v>
+      </c>
+      <c r="G100" s="333">
+        <v>0.47</v>
+      </c>
+      <c r="H100" s="401">
+        <v>0.183</v>
+      </c>
+      <c r="I100" s="401">
+        <v>0.47</v>
+      </c>
       <c r="J100"/>
       <c r="K100" s="392"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B101" s="391" t="s">
-        <v>464</v>
-      </c>
+      <c r="B101" s="391"/>
       <c r="C101" s="402"/>
       <c r="D101" s="402"/>
       <c r="E101" s="274"/>
@@ -11169,47 +11174,61 @@
       <c r="K101" s="392"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B102" s="391"/>
-      <c r="C102" s="402" t="s">
-        <v>465</v>
-      </c>
-      <c r="D102" s="402" t="s">
-        <v>221</v>
-      </c>
-      <c r="E102" s="274" t="s">
-        <v>233</v>
-      </c>
-      <c r="F102" s="402">
-        <v>0.433</v>
-      </c>
-      <c r="G102" s="333">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="H102" s="401">
-        <v>0.433</v>
-      </c>
-      <c r="I102" s="401">
-        <v>0.30499999999999999</v>
-      </c>
+      <c r="B102" s="391" t="s">
+        <v>463</v>
+      </c>
+      <c r="C102" s="402"/>
+      <c r="D102" s="402"/>
+      <c r="E102" s="274"/>
+      <c r="F102" s="402"/>
+      <c r="G102" s="333"/>
+      <c r="H102" s="401"/>
+      <c r="I102" s="401"/>
       <c r="J102"/>
       <c r="K102" s="392"/>
     </row>
-    <row r="103" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="403"/>
-      <c r="C103" s="404"/>
-      <c r="D103" s="404"/>
-      <c r="E103" s="404"/>
-      <c r="F103" s="404"/>
-      <c r="G103" s="404"/>
-      <c r="H103" s="404"/>
-      <c r="I103" s="404"/>
-      <c r="J103" s="404"/>
-      <c r="K103" s="405"/>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B103" s="391"/>
+      <c r="C103" s="402" t="s">
+        <v>464</v>
+      </c>
+      <c r="D103" s="402" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" s="274" t="s">
+        <v>233</v>
+      </c>
+      <c r="F103" s="402">
+        <v>0.433</v>
+      </c>
+      <c r="G103" s="333">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="H103" s="401">
+        <v>0.433</v>
+      </c>
+      <c r="I103" s="401">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="J103"/>
+      <c r="K103" s="392"/>
+    </row>
+    <row r="104" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="403"/>
+      <c r="C104" s="404"/>
+      <c r="D104" s="404"/>
+      <c r="E104" s="404"/>
+      <c r="F104" s="404"/>
+      <c r="G104" s="404"/>
+      <c r="H104" s="404"/>
+      <c r="I104" s="404"/>
+      <c r="J104" s="404"/>
+      <c r="K104" s="405"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="B48:K48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11294,7 +11313,7 @@
         <v>42990</v>
       </c>
       <c r="C9" s="306" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D9" s="78">
         <v>1.03</v>
@@ -12728,31 +12747,31 @@
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="316" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>389</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D2" s="451" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="454" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="451"/>
-      <c r="F2" s="451"/>
-      <c r="G2" s="451"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="453" t="s">
+      <c r="E2" s="454"/>
+      <c r="F2" s="454"/>
+      <c r="G2" s="454"/>
+      <c r="H2" s="455"/>
+      <c r="I2" s="456" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="451"/>
-      <c r="K2" s="452"/>
-      <c r="L2" s="453" t="s">
+      <c r="J2" s="454"/>
+      <c r="K2" s="455"/>
+      <c r="L2" s="456" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="451"/>
-      <c r="N2" s="452"/>
+      <c r="M2" s="454"/>
+      <c r="N2" s="455"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -12842,7 +12861,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -14003,7 +14022,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>25</v>
@@ -14051,7 +14070,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>25</v>
@@ -14077,7 +14096,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>25</v>
@@ -14125,7 +14144,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
@@ -14171,7 +14190,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>25</v>
@@ -14215,7 +14234,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>25</v>
@@ -14253,7 +14272,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>25</v>
@@ -14279,7 +14298,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>25</v>
@@ -14305,7 +14324,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>25</v>
@@ -14331,7 +14350,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>25</v>
@@ -14357,7 +14376,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>18</v>
@@ -14405,7 +14424,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>18</v>
@@ -14431,7 +14450,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>18</v>
@@ -14479,7 +14498,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>18</v>
@@ -14525,7 +14544,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>18</v>
@@ -14569,7 +14588,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>18</v>
@@ -14595,7 +14614,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>18</v>
@@ -14621,7 +14640,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>18</v>
@@ -14647,7 +14666,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>18</v>
@@ -14673,7 +14692,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>18</v>
@@ -14699,7 +14718,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>37</v>
@@ -14743,7 +14762,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>37</v>
@@ -14769,7 +14788,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>37</v>
@@ -14813,7 +14832,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>37</v>
@@ -14851,7 +14870,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>37</v>
@@ -14877,7 +14896,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>37</v>
@@ -14915,7 +14934,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>37</v>
@@ -14941,7 +14960,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>37</v>
@@ -14967,7 +14986,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>37</v>
@@ -14993,7 +15012,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>37</v>
@@ -15019,7 +15038,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>25</v>
@@ -15065,7 +15084,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>25</v>
@@ -15111,7 +15130,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>25</v>
@@ -15157,7 +15176,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>25</v>
@@ -15201,7 +15220,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>25</v>
@@ -15245,7 +15264,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>25</v>
@@ -15271,7 +15290,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>25</v>
@@ -15305,7 +15324,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>25</v>
@@ -15339,7 +15358,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>25</v>
@@ -15371,7 +15390,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>25</v>
@@ -15415,7 +15434,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>18</v>
@@ -15461,7 +15480,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>18</v>
@@ -15507,7 +15526,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>18</v>
@@ -15553,7 +15572,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>18</v>
@@ -15597,7 +15616,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>18</v>
@@ -15641,7 +15660,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>18</v>
@@ -15667,7 +15686,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>18</v>
@@ -15693,7 +15712,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>18</v>
@@ -15719,7 +15738,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>18</v>
@@ -15745,7 +15764,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>18</v>
@@ -15789,7 +15808,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>37</v>
@@ -15831,7 +15850,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>37</v>
@@ -15869,7 +15888,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>37</v>
@@ -15911,7 +15930,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>37</v>
@@ -15937,7 +15956,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>37</v>
@@ -15963,7 +15982,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>37</v>
@@ -15989,7 +16008,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>37</v>
@@ -16023,7 +16042,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>37</v>
@@ -16057,7 +16076,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>37</v>
@@ -16089,7 +16108,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>37</v>
@@ -25532,31 +25551,31 @@
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="316" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>389</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D2" s="454" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="457" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="454"/>
-      <c r="F2" s="454"/>
-      <c r="G2" s="454"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="453" t="s">
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="455"/>
+      <c r="I2" s="456" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="454"/>
-      <c r="K2" s="452"/>
-      <c r="L2" s="453" t="s">
+      <c r="J2" s="457"/>
+      <c r="K2" s="455"/>
+      <c r="L2" s="456" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="454"/>
-      <c r="N2" s="452"/>
+      <c r="M2" s="457"/>
+      <c r="N2" s="455"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -25646,7 +25665,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
@@ -27697,13 +27716,13 @@
     </row>
     <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B38" s="421" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="421" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D38" s="422">
         <f>SUM(E38:H38)</f>
@@ -27742,13 +27761,13 @@
     </row>
     <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B39" s="421" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="421" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D39" s="422">
         <f>SUM(E39:H39)</f>
@@ -27766,7 +27785,7 @@
       <c r="H39" s="423"/>
       <c r="I39" s="422"/>
       <c r="J39" s="422">
-        <f>D39*technical_specs!F66</f>
+        <f>D39*technical_specs!F67</f>
         <v>1860.75</v>
       </c>
       <c r="K39" s="422"/>
@@ -27777,13 +27796,13 @@
     </row>
     <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B40" s="421" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="421" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D40" s="422">
         <f>SUM(E40:H40)</f>
@@ -28429,13 +28448,13 @@
     </row>
     <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" s="421" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="421" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D51" s="422">
         <f>SUM(E51:H51)</f>
@@ -28450,7 +28469,7 @@
       <c r="H51" s="423"/>
       <c r="I51" s="424"/>
       <c r="J51" s="422">
-        <f>D51*technical_specs!$F$56</f>
+        <f>D51*technical_specs!$F$57</f>
         <v>17340.12</v>
       </c>
       <c r="K51" s="426"/>
@@ -28465,13 +28484,13 @@
     </row>
     <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B52" s="421" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="421" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D52" s="422">
         <f>SUM(E52:H52)</f>
@@ -28489,7 +28508,7 @@
       <c r="H52" s="423"/>
       <c r="I52" s="422"/>
       <c r="J52" s="422">
-        <f>D52*technical_specs!$F$54</f>
+        <f>D52*technical_specs!$F$55</f>
         <v>643.54000000000008</v>
       </c>
       <c r="K52" s="426"/>
@@ -28500,13 +28519,13 @@
     </row>
     <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B53" s="421" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="421" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D53" s="422">
         <f>SUM(E53:H53)</f>
@@ -29152,13 +29171,13 @@
     </row>
     <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B64" s="421" t="s">
         <v>37</v>
       </c>
       <c r="C64" s="421" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D64" s="422">
         <f>SUM(E64:H64)</f>
@@ -29186,13 +29205,13 @@
     </row>
     <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B65" s="421" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="421" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D65" s="422">
         <f>SUM(E65:H65)</f>
@@ -29210,7 +29229,7 @@
       <c r="H65" s="423"/>
       <c r="I65" s="422"/>
       <c r="J65" s="422">
-        <f>D65*technical_specs!$F$54</f>
+        <f>D65*technical_specs!$F$55</f>
         <v>1258.56</v>
       </c>
       <c r="K65" s="422"/>
@@ -29221,13 +29240,13 @@
     </row>
     <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B66" s="421" t="s">
         <v>37</v>
       </c>
       <c r="C66" s="421" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D66" s="422">
         <f>SUM(E66:H66)</f>
@@ -50182,41 +50201,41 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="316" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.2">
       <c r="A5" s="406" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" s="409" t="s">
         <v>469</v>
       </c>
-      <c r="B5" s="409" t="s">
-        <v>470</v>
-      </c>
       <c r="C5" s="415" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D5" s="415" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E5" s="415" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F5" s="415" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G5" s="416" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -50226,7 +50245,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="418" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E6" s="418" t="s">
         <v>20</v>
@@ -50243,7 +50262,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C7" s="14">
         <v>610012</v>
@@ -50266,7 +50285,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C8" s="14">
         <v>476772</v>
@@ -50289,7 +50308,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C9" s="14">
         <v>387128</v>
@@ -50312,7 +50331,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C10" s="14">
         <v>66484</v>
@@ -50335,7 +50354,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C11" s="14">
         <v>343</v>
@@ -50358,7 +50377,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C12" s="14">
         <v>22816</v>
@@ -50381,7 +50400,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C13" s="14">
         <v>102571</v>
@@ -50404,7 +50423,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C14" s="14">
         <v>19210</v>
@@ -50423,7 +50442,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C15" s="14">
         <v>41429</v>
@@ -50442,7 +50461,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C16" s="14">
         <v>267</v>
@@ -50461,7 +50480,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C17" s="14">
         <v>41666</v>
@@ -50484,7 +50503,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C18" s="14">
         <v>14075</v>
@@ -50505,7 +50524,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C19" s="14">
         <v>16594</v>
@@ -50525,10 +50544,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C20" s="14">
         <v>290422</v>
@@ -50548,10 +50567,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C21" s="14">
         <v>268275</v>
@@ -50571,10 +50590,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C22" s="14">
         <v>193100</v>
@@ -50594,10 +50613,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C23" s="14">
         <v>66484</v>
@@ -50617,10 +50636,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C24" s="14">
         <v>232</v>
@@ -50640,10 +50659,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C25" s="14">
         <v>8458</v>
@@ -50663,10 +50682,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C26" s="14">
         <v>7925</v>
@@ -50686,10 +50705,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="12"/>
@@ -50699,10 +50718,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="12"/>
@@ -50712,10 +50731,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="12"/>
@@ -50725,10 +50744,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C30" s="14">
         <v>7925</v>
@@ -50748,10 +50767,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C31" s="14">
         <v>14075</v>
@@ -50769,10 +50788,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C32" s="14">
         <v>147</v>
@@ -50792,10 +50811,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C33" s="14">
         <v>319590</v>
@@ -50815,10 +50834,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C34" s="14">
         <v>208497</v>
@@ -50838,10 +50857,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C35" s="14">
         <v>194028</v>
@@ -50861,10 +50880,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="12"/>
@@ -50874,10 +50893,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C37" s="14">
         <v>111</v>
@@ -50897,10 +50916,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C38" s="14">
         <v>14358</v>
@@ -50920,10 +50939,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C39" s="14">
         <v>94646</v>
@@ -50943,10 +50962,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C40" s="14">
         <v>19210</v>
@@ -50962,10 +50981,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C41" s="14">
         <v>41429</v>
@@ -50981,10 +51000,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C42" s="14">
         <v>267</v>
@@ -51000,10 +51019,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C43" s="14">
         <v>33741</v>
@@ -51023,10 +51042,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="12"/>
@@ -51036,10 +51055,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="407" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B45" s="408" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C45" s="410">
         <v>16447</v>
@@ -51067,13 +51086,13 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51111,12 +51130,12 @@
       <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="455" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" s="456"/>
-      <c r="D5" s="456"/>
-      <c r="E5" s="457"/>
+      <c r="B5" s="458" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="459"/>
+      <c r="D5" s="459"/>
+      <c r="E5" s="460"/>
     </row>
     <row r="6" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -51140,14 +51159,14 @@
     </row>
     <row r="8" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24"/>
-      <c r="M8" s="458" t="s">
+      <c r="M8" s="461" t="s">
+        <v>431</v>
+      </c>
+      <c r="N8" s="461" t="s">
+        <v>248</v>
+      </c>
+      <c r="O8" s="461" t="s">
         <v>432</v>
-      </c>
-      <c r="N8" s="458" t="s">
-        <v>248</v>
-      </c>
-      <c r="O8" s="458" t="s">
-        <v>433</v>
       </c>
       <c r="P8" s="25"/>
     </row>
@@ -51175,11 +51194,11 @@
       <c r="J9" s="340"/>
       <c r="K9" s="28"/>
       <c r="L9" s="341" t="s">
-        <v>434</v>
-      </c>
-      <c r="M9" s="459"/>
-      <c r="N9" s="459"/>
-      <c r="O9" s="459"/>
+        <v>433</v>
+      </c>
+      <c r="M9" s="462"/>
+      <c r="N9" s="462"/>
+      <c r="O9" s="462"/>
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -51686,7 +51705,7 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="359" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C28" s="31"/>
       <c r="L28" s="32"/>
@@ -52132,7 +52151,7 @@
         <v>173</v>
       </c>
       <c r="D44" s="342">
-        <f>SUM('CBS data 2019 (edited)'!J177,'CBS data 2019 (edited)'!J207,'CBS data 2019 (edited)'!J237,'CBS data 2019 (edited)'!J267)+SUM('CBS data 2019 (edited)'!J176,'CBS data 2019 (edited)'!J206,'CBS data 2019 (edited)'!J236,'CBS data 2019 (edited)'!J266)*(1-$E$45/$E$46)</f>
+        <f>SUM('CBS data 2019 (edited)'!J177,'CBS data 2019 (edited)'!J207,'CBS data 2019 (edited)'!J237,'CBS data 2019 (edited)'!J267)+SUM('CBS data 2019 (edited)'!J176,'CBS data 2019 (edited)'!J206,'CBS data 2019 (edited)'!J236,'CBS data 2019 (edited)'!J266)*(1-$E$46/$E$47)</f>
         <v>28198</v>
       </c>
       <c r="E44" s="342">
@@ -52159,51 +52178,40 @@
       </c>
       <c r="P44" s="25"/>
       <c r="Q44" s="360" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="24"/>
-      <c r="C45" s="321" t="s">
-        <v>170</v>
-      </c>
-      <c r="D45" s="342">
-        <f>SUM('CBS data 2019 (edited)'!J176,'CBS data 2019 (edited)'!J206,'CBS data 2019 (edited)'!J236,'CBS data 2019 (edited)'!J266)*E45/$E$46</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="342">
-        <f>SUM('CBS data 2019 (edited)'!G176,'CBS data 2019 (edited)'!G206,'CBS data 2019 (edited)'!G236,'CBS data 2019 (edited)'!G266)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="342"/>
+      <c r="C45" s="494" t="s">
+        <v>525</v>
+      </c>
+      <c r="D45" s="342"/>
+      <c r="E45" s="342"/>
+      <c r="F45" s="285"/>
       <c r="G45" s="342"/>
       <c r="H45" s="342"/>
       <c r="I45" s="342"/>
       <c r="J45" s="342"/>
       <c r="L45" s="344"/>
       <c r="M45" s="345"/>
-      <c r="N45" s="346">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="346">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="N45" s="346"/>
+      <c r="O45" s="346"/>
       <c r="P45" s="25"/>
+      <c r="Q45" s="360"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="24"/>
       <c r="C46" s="321" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D46" s="342">
-        <f>SUBTOTAL(9,D42:D45)</f>
-        <v>36556</v>
+        <f>SUM('CBS data 2019 (edited)'!J176,'CBS data 2019 (edited)'!J206,'CBS data 2019 (edited)'!J236,'CBS data 2019 (edited)'!J266)*E46/$E$47</f>
+        <v>0</v>
       </c>
       <c r="E46" s="342">
-        <f>SUBTOTAL(9,E42:E45)</f>
-        <v>125381</v>
+        <f>SUM('CBS data 2019 (edited)'!G176,'CBS data 2019 (edited)'!G206,'CBS data 2019 (edited)'!G236,'CBS data 2019 (edited)'!G266)</f>
+        <v>0</v>
       </c>
       <c r="F46" s="342"/>
       <c r="G46" s="342"/>
@@ -52212,350 +52220,324 @@
       <c r="J46" s="342"/>
       <c r="L46" s="344"/>
       <c r="M46" s="345"/>
-      <c r="N46" s="362"/>
-      <c r="O46" s="362"/>
+      <c r="N46" s="346">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="346">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="P46" s="25"/>
     </row>
-    <row r="47" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="40"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="367"/>
-      <c r="M47" s="368"/>
-      <c r="N47" s="369"/>
-      <c r="O47" s="369"/>
-      <c r="P47" s="44"/>
-    </row>
-    <row r="48" spans="2:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="30" t="s">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="24"/>
+      <c r="C47" s="321" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="342">
+        <f>SUBTOTAL(9,D42:D46)</f>
+        <v>36556</v>
+      </c>
+      <c r="E47" s="342">
+        <f>SUBTOTAL(9,E42:E46)</f>
+        <v>125381</v>
+      </c>
+      <c r="F47" s="342"/>
+      <c r="G47" s="342"/>
+      <c r="H47" s="342"/>
+      <c r="I47" s="342"/>
+      <c r="J47" s="342"/>
+      <c r="L47" s="344"/>
+      <c r="M47" s="345"/>
+      <c r="N47" s="362"/>
+      <c r="O47" s="362"/>
+      <c r="P47" s="25"/>
+    </row>
+    <row r="48" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="40"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="367"/>
+      <c r="M48" s="368"/>
+      <c r="N48" s="369"/>
+      <c r="O48" s="369"/>
+      <c r="P48" s="44"/>
+    </row>
+    <row r="49" spans="2:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="353"/>
-      <c r="E48" s="353"/>
-      <c r="F48" s="353"/>
-      <c r="G48" s="353"/>
-      <c r="H48" s="353"/>
-      <c r="I48" s="353"/>
-      <c r="J48" s="353"/>
-      <c r="L48" s="344"/>
-      <c r="M48" s="345"/>
-      <c r="N48" s="346"/>
-      <c r="O48" s="346"/>
-      <c r="P48" s="25"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="24"/>
-      <c r="C49" s="321" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="342">
-        <f t="shared" ref="D49:E53" si="2">D35+D42</f>
-        <v>11674</v>
-      </c>
-      <c r="E49" s="342">
-        <f t="shared" si="2"/>
-        <v>43518</v>
-      </c>
-      <c r="F49" s="370">
-        <f>D49/SUM(D$49:D$51)</f>
-        <v>0.27296109240553684</v>
-      </c>
-      <c r="G49" s="342"/>
-      <c r="H49" s="342"/>
-      <c r="I49" s="342"/>
-      <c r="J49" s="342"/>
-      <c r="L49" s="344">
-        <v>2785</v>
-      </c>
-      <c r="M49" s="345">
-        <f>IF(ISNUMBER(D49),D49/3.6/L49*1000,"")</f>
-        <v>1164.3726311589867</v>
-      </c>
-      <c r="N49" s="346">
-        <f t="shared" ref="N49:O52" si="3">SUBTOTAL(9,N35,N42)</f>
-        <v>791</v>
-      </c>
-      <c r="O49" s="346">
-        <f t="shared" si="3"/>
-        <v>2698.068888888889</v>
-      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="353"/>
+      <c r="E49" s="353"/>
+      <c r="F49" s="353"/>
+      <c r="G49" s="353"/>
+      <c r="H49" s="353"/>
+      <c r="I49" s="353"/>
+      <c r="J49" s="353"/>
+      <c r="L49" s="344"/>
+      <c r="M49" s="345"/>
+      <c r="N49" s="346"/>
+      <c r="O49" s="346"/>
       <c r="P49" s="25"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="24"/>
       <c r="C50" s="321" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D50" s="342">
-        <f t="shared" si="2"/>
-        <v>340</v>
+        <f>D35+D42</f>
+        <v>11674</v>
       </c>
       <c r="E50" s="342">
-        <f t="shared" si="2"/>
-        <v>1397</v>
+        <f>E35+E42</f>
+        <v>43518</v>
       </c>
       <c r="F50" s="370">
-        <f t="shared" ref="F50:F51" si="4">D50/SUM(D$49:D$51)</f>
-        <v>7.9498690609801723E-3</v>
+        <f>D50/SUM(D$50:D$52)</f>
+        <v>0.27296109240553684</v>
       </c>
       <c r="G50" s="342"/>
       <c r="H50" s="342"/>
       <c r="I50" s="342"/>
       <c r="J50" s="342"/>
       <c r="L50" s="344">
-        <v>820</v>
+        <v>2785</v>
       </c>
       <c r="M50" s="345">
         <f>IF(ISNUMBER(D50),D50/3.6/L50*1000,"")</f>
-        <v>115.17615176151762</v>
+        <v>1164.3726311589867</v>
       </c>
       <c r="N50" s="346">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f>SUBTOTAL(9,N35,N42)</f>
+        <v>791</v>
       </c>
       <c r="O50" s="346">
-        <f t="shared" si="3"/>
-        <v>47.897777777777776</v>
+        <f>SUBTOTAL(9,O35,O42)</f>
+        <v>2698.068888888889</v>
       </c>
       <c r="P50" s="25"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="24"/>
       <c r="C51" s="321" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D51" s="342">
-        <f t="shared" si="2"/>
-        <v>30754</v>
+        <f>D36+D43</f>
+        <v>340</v>
       </c>
       <c r="E51" s="342">
-        <f t="shared" si="2"/>
-        <v>103126</v>
+        <f>E36+E43</f>
+        <v>1397</v>
       </c>
       <c r="F51" s="370">
-        <f t="shared" si="4"/>
-        <v>0.71908903853348294</v>
+        <f t="shared" ref="F51:F52" si="2">D51/SUM(D$50:D$52)</f>
+        <v>7.9498690609801723E-3</v>
       </c>
       <c r="G51" s="342"/>
       <c r="H51" s="342"/>
       <c r="I51" s="342"/>
       <c r="J51" s="342"/>
       <c r="L51" s="344">
-        <v>1925</v>
+        <v>820</v>
       </c>
       <c r="M51" s="345">
         <f>IF(ISNUMBER(D51),D51/3.6/L51*1000,"")</f>
-        <v>4437.8066378066378</v>
+        <v>115.17615176151762</v>
       </c>
       <c r="N51" s="346">
-        <f t="shared" si="3"/>
-        <v>1906</v>
+        <f>SUBTOTAL(9,N36,N43)</f>
+        <v>40</v>
       </c>
       <c r="O51" s="346">
-        <f t="shared" si="3"/>
-        <v>5534.5716666666676</v>
+        <f>SUBTOTAL(9,O36,O43)</f>
+        <v>47.897777777777776</v>
       </c>
       <c r="P51" s="25"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="24"/>
       <c r="C52" s="321" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D52" s="342">
+        <f>D37+D44</f>
+        <v>30754</v>
+      </c>
+      <c r="E52" s="342">
+        <f>E37+E44</f>
+        <v>103126</v>
+      </c>
+      <c r="F52" s="370">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="342">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="342"/>
+        <v>0.71908903853348294</v>
+      </c>
       <c r="G52" s="342"/>
       <c r="H52" s="342"/>
       <c r="I52" s="342"/>
       <c r="J52" s="342"/>
       <c r="L52" s="344">
-        <v>6000</v>
+        <v>1925</v>
       </c>
       <c r="M52" s="345">
         <f>IF(ISNUMBER(D52),D52/3.6/L52*1000,"")</f>
-        <v>0</v>
+        <v>4437.8066378066378</v>
       </c>
       <c r="N52" s="346">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUBTOTAL(9,N37,N44)</f>
+        <v>1906</v>
       </c>
       <c r="O52" s="346">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUBTOTAL(9,O37,O44)</f>
+        <v>5534.5716666666676</v>
       </c>
       <c r="P52" s="25"/>
     </row>
-    <row r="53" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="24"/>
-      <c r="C53" s="321" t="s">
+      <c r="C53" s="494" t="s">
+        <v>525</v>
+      </c>
+      <c r="D53" s="342"/>
+      <c r="E53" s="342"/>
+      <c r="F53" s="370"/>
+      <c r="G53" s="342"/>
+      <c r="H53" s="342"/>
+      <c r="I53" s="342"/>
+      <c r="J53" s="342"/>
+      <c r="L53" s="344"/>
+      <c r="M53" s="345"/>
+      <c r="N53" s="346"/>
+      <c r="O53" s="346"/>
+      <c r="P53" s="25"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="24"/>
+      <c r="C54" s="321" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="342">
+        <f>D38+D46</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="342">
+        <f>E38+E46</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="342"/>
+      <c r="G54" s="342"/>
+      <c r="H54" s="342"/>
+      <c r="I54" s="342"/>
+      <c r="J54" s="342"/>
+      <c r="L54" s="344">
+        <v>6000</v>
+      </c>
+      <c r="M54" s="345">
+        <f>IF(ISNUMBER(D54),D54/3.6/L54*1000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="346">
+        <f>SUBTOTAL(9,N38,N46)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="346">
+        <f>SUBTOTAL(9,O38,O46)</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="25"/>
+    </row>
+    <row r="55" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="24"/>
+      <c r="C55" s="321" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="350">
-        <f t="shared" si="2"/>
+      <c r="D55" s="350">
+        <f>D39+D47</f>
         <v>42768</v>
       </c>
-      <c r="E53" s="349">
-        <f t="shared" si="2"/>
+      <c r="E55" s="349">
+        <f>E39+E47</f>
         <v>148041</v>
       </c>
-      <c r="F53" s="349"/>
-      <c r="G53" s="349"/>
-      <c r="H53" s="349"/>
-      <c r="I53" s="349"/>
-      <c r="J53" s="349"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="350"/>
-      <c r="M53" s="363">
-        <f>SUBTOTAL(9,M49:M52)</f>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="349"/>
+      <c r="J55" s="349"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="350"/>
+      <c r="M55" s="363">
+        <f>SUBTOTAL(9,M50:M54)</f>
         <v>5717.3554207271418</v>
       </c>
-      <c r="N53" s="352">
-        <f>SUBTOTAL(9,N35:N52)</f>
+      <c r="N55" s="352">
+        <f>SUBTOTAL(9,N35:N54)</f>
         <v>2737</v>
       </c>
-      <c r="O53" s="352">
-        <f>SUBTOTAL(9,O35:O52)</f>
+      <c r="O55" s="352">
+        <f>SUBTOTAL(9,O35:O54)</f>
         <v>8280.5383333333339</v>
       </c>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="360"/>
-    </row>
-    <row r="54" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="45"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="364"/>
-      <c r="M54" s="365"/>
-      <c r="N54" s="366"/>
-      <c r="O54" s="366"/>
-      <c r="P54" s="49"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="30" t="s">
+      <c r="P55" s="25"/>
+      <c r="Q55" s="360"/>
+    </row>
+    <row r="56" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="364"/>
+      <c r="M56" s="365"/>
+      <c r="N56" s="366"/>
+      <c r="O56" s="366"/>
+      <c r="P56" s="49"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="353"/>
-      <c r="E55" s="353"/>
-      <c r="F55" s="353"/>
-      <c r="G55" s="353"/>
-      <c r="H55" s="353"/>
-      <c r="I55" s="353"/>
-      <c r="J55" s="353"/>
-      <c r="L55" s="344"/>
-      <c r="M55" s="345"/>
-      <c r="N55" s="346"/>
-      <c r="O55" s="346"/>
-      <c r="P55" s="25"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B56" s="24"/>
-      <c r="C56" s="321" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="342">
-        <f>'CBS data 2019 (edited)'!J54+'CBS data 2019 (edited)'!J55+'CBS data 2019 (edited)'!J297+'CBS data 2019 (edited)'!J298+'CBS data 2019 (edited)'!J49+'CBS data 2019 (edited)'!J295</f>
-        <v>49661</v>
-      </c>
-      <c r="E56" s="342">
-        <f>'CBS data 2019 (edited)'!E49+'CBS data 2019 (edited)'!F49+'CBS data 2019 (edited)'!H49+'CBS data 2019 (edited)'!E54+'CBS data 2019 (edited)'!F54+'CBS data 2019 (edited)'!H54+'CBS data 2019 (edited)'!E55+'CBS data 2019 (edited)'!F55+'CBS data 2019 (edited)'!H55+'CBS data 2019 (edited)'!E298+'CBS data 2019 (edited)'!H298+'CBS data 2019 (edited)'!E295+'CBS data 2019 (edited)'!H295+'CBS data 2019 (edited)'!E297+'CBS data 2019 (edited)'!H297</f>
-        <v>103298</v>
-      </c>
-      <c r="F56" s="342"/>
-      <c r="G56" s="342"/>
-      <c r="H56" s="342"/>
-      <c r="I56" s="342"/>
-      <c r="J56" s="342"/>
-      <c r="L56" s="344">
-        <v>4975</v>
-      </c>
-      <c r="M56" s="345">
-        <f>IF(ISNUMBER(D56),D56/3.6/L56*1000,"")</f>
-        <v>2772.8084868788387</v>
-      </c>
-      <c r="N56" s="346">
-        <f>'CBS data 2019 (edited)'!L54+'CBS data 2019 (edited)'!L297+'CBS data 2019 (edited)'!L55+'CBS data 2019 (edited)'!L298+'CBS data 2019 (edited)'!L295+'CBS data 2019 (edited)'!L49</f>
-        <v>3547</v>
-      </c>
-      <c r="O56" s="346">
-        <f>'CBS data 2019 (edited)'!O54+'CBS data 2019 (edited)'!O297+'CBS data 2019 (edited)'!O55+'CBS data 2019 (edited)'!O298+'CBS data 2019 (edited)'!O295+'CBS data 2019 (edited)'!O49</f>
-        <v>2793.1255555555558</v>
-      </c>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="360" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="24"/>
-      <c r="C57" s="321" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="342">
-        <v>0</v>
-      </c>
-      <c r="E57" s="342">
-        <v>0</v>
-      </c>
-      <c r="F57" s="342"/>
-      <c r="G57" s="342"/>
-      <c r="H57" s="342"/>
-      <c r="I57" s="342"/>
-      <c r="J57" s="342"/>
-      <c r="L57" s="344">
-        <v>4500</v>
-      </c>
-      <c r="M57" s="345">
-        <f>IF(ISNUMBER(D57),D57/3.6/L57*1000,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="346">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="346">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="353"/>
+      <c r="E57" s="353"/>
+      <c r="F57" s="353"/>
+      <c r="G57" s="353"/>
+      <c r="H57" s="353"/>
+      <c r="I57" s="353"/>
+      <c r="J57" s="353"/>
+      <c r="L57" s="344"/>
+      <c r="M57" s="345"/>
+      <c r="N57" s="346"/>
+      <c r="O57" s="346"/>
       <c r="P57" s="25"/>
-      <c r="Q57" s="360" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="24"/>
       <c r="C58" s="321" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D58" s="342">
-        <f>0</f>
-        <v>0</v>
+        <f>'CBS data 2019 (edited)'!J54+'CBS data 2019 (edited)'!J55+'CBS data 2019 (edited)'!J297+'CBS data 2019 (edited)'!J298+'CBS data 2019 (edited)'!J49+'CBS data 2019 (edited)'!J295</f>
+        <v>49661</v>
       </c>
       <c r="E58" s="342">
-        <f>0</f>
-        <v>0</v>
+        <f>'CBS data 2019 (edited)'!E49+'CBS data 2019 (edited)'!F49+'CBS data 2019 (edited)'!H49+'CBS data 2019 (edited)'!E54+'CBS data 2019 (edited)'!F54+'CBS data 2019 (edited)'!H54+'CBS data 2019 (edited)'!E55+'CBS data 2019 (edited)'!F55+'CBS data 2019 (edited)'!H55+'CBS data 2019 (edited)'!E298+'CBS data 2019 (edited)'!H298+'CBS data 2019 (edited)'!E295+'CBS data 2019 (edited)'!H295+'CBS data 2019 (edited)'!E297+'CBS data 2019 (edited)'!H297</f>
+        <v>103298</v>
       </c>
       <c r="F58" s="342"/>
       <c r="G58" s="342"/>
@@ -52563,34 +52545,35 @@
       <c r="I58" s="342"/>
       <c r="J58" s="342"/>
       <c r="L58" s="344">
-        <v>4500</v>
+        <v>4975</v>
       </c>
       <c r="M58" s="345">
         <f>IF(ISNUMBER(D58),D58/3.6/L58*1000,"")</f>
-        <v>0</v>
+        <v>2772.8084868788387</v>
       </c>
       <c r="N58" s="346">
-        <f>0</f>
-        <v>0</v>
+        <f>'CBS data 2019 (edited)'!L54+'CBS data 2019 (edited)'!L297+'CBS data 2019 (edited)'!L55+'CBS data 2019 (edited)'!L298+'CBS data 2019 (edited)'!L295+'CBS data 2019 (edited)'!L49</f>
+        <v>3547</v>
       </c>
       <c r="O58" s="346">
-        <f>0</f>
-        <v>0</v>
+        <f>'CBS data 2019 (edited)'!O54+'CBS data 2019 (edited)'!O297+'CBS data 2019 (edited)'!O55+'CBS data 2019 (edited)'!O298+'CBS data 2019 (edited)'!O295+'CBS data 2019 (edited)'!O49</f>
+        <v>2793.1255555555558</v>
       </c>
       <c r="P58" s="25"/>
+      <c r="Q58" s="360" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="24"/>
       <c r="C59" s="321" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D59" s="342">
-        <f>'CBS data 2019 (edited)'!J50+'CBS data 2019 (edited)'!J296</f>
-        <v>25355</v>
+        <v>0</v>
       </c>
       <c r="E59" s="342">
-        <f>'CBS data 2019 (edited)'!D50+'CBS data 2019 (edited)'!D296</f>
-        <v>64017</v>
+        <v>0</v>
       </c>
       <c r="F59" s="342"/>
       <c r="G59" s="342"/>
@@ -52602,240 +52585,313 @@
       </c>
       <c r="M59" s="345">
         <f>IF(ISNUMBER(D59),D59/3.6/L59*1000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="346">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="346">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="360" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B60" s="24"/>
+      <c r="C60" s="321" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="342">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="342">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="342"/>
+      <c r="G60" s="342"/>
+      <c r="H60" s="342"/>
+      <c r="I60" s="342"/>
+      <c r="J60" s="342"/>
+      <c r="L60" s="344">
+        <v>4500</v>
+      </c>
+      <c r="M60" s="345">
+        <f>IF(ISNUMBER(D60),D60/3.6/L60*1000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="346">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="346">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P60" s="25"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B61" s="24"/>
+      <c r="C61" s="321" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="342">
+        <f>'CBS data 2019 (edited)'!J50+'CBS data 2019 (edited)'!J296</f>
+        <v>25355</v>
+      </c>
+      <c r="E61" s="342">
+        <f>'CBS data 2019 (edited)'!D50+'CBS data 2019 (edited)'!D296</f>
+        <v>64017</v>
+      </c>
+      <c r="F61" s="342"/>
+      <c r="G61" s="342"/>
+      <c r="H61" s="342"/>
+      <c r="I61" s="342"/>
+      <c r="J61" s="342"/>
+      <c r="L61" s="344">
+        <v>4500</v>
+      </c>
+      <c r="M61" s="345">
+        <f>IF(ISNUMBER(D61),D61/3.6/L61*1000,"")</f>
         <v>1565.1234567901236</v>
       </c>
-      <c r="N59" s="348">
+      <c r="N61" s="348">
         <f>'CBS data 2019 (edited)'!L50+'CBS data 2019 (edited)'!L296</f>
         <v>1838</v>
       </c>
-      <c r="O59" s="348">
+      <c r="O61" s="348">
         <f>'CBS data 2019 (edited)'!O50+'CBS data 2019 (edited)'!O296</f>
         <v>778.62777777777774</v>
       </c>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="360" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="60" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="24"/>
-      <c r="C60" s="321" t="s">
+      <c r="P61" s="25"/>
+      <c r="Q61" s="360" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="24"/>
+      <c r="C62" s="321" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="349">
-        <f>SUBTOTAL(9,D56:D59)</f>
+      <c r="D62" s="349">
+        <f>SUBTOTAL(9,D58:D61)</f>
         <v>75016</v>
       </c>
-      <c r="E60" s="349">
-        <f>SUBTOTAL(9,E56:E59)</f>
+      <c r="E62" s="349">
+        <f>SUBTOTAL(9,E58:E61)</f>
         <v>167315</v>
       </c>
-      <c r="F60" s="349"/>
-      <c r="G60" s="349"/>
-      <c r="H60" s="349"/>
-      <c r="I60" s="349"/>
-      <c r="J60" s="349"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="350"/>
-      <c r="M60" s="363">
-        <f>SUBTOTAL(9,M56:M59)</f>
+      <c r="F62" s="349"/>
+      <c r="G62" s="349"/>
+      <c r="H62" s="349"/>
+      <c r="I62" s="349"/>
+      <c r="J62" s="349"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="350"/>
+      <c r="M62" s="363">
+        <f>SUBTOTAL(9,M58:M61)</f>
         <v>4337.931943668962</v>
       </c>
-      <c r="N60" s="352">
-        <f>SUBTOTAL(9,N56:N59)</f>
+      <c r="N62" s="352">
+        <f>SUBTOTAL(9,N58:N61)</f>
         <v>5385</v>
       </c>
-      <c r="O60" s="352">
-        <f>SUBTOTAL(9,O56:O59)</f>
+      <c r="O62" s="352">
+        <f>SUBTOTAL(9,O58:O61)</f>
         <v>3571.7533333333336</v>
       </c>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="360"/>
-    </row>
-    <row r="61" spans="2:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="354"/>
-      <c r="M61" s="355"/>
-      <c r="N61" s="371"/>
-      <c r="O61" s="371"/>
-      <c r="P61" s="29"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B62" s="30" t="s">
+      <c r="P62" s="25"/>
+      <c r="Q62" s="360"/>
+    </row>
+    <row r="63" spans="2:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="354"/>
+      <c r="M63" s="355"/>
+      <c r="N63" s="371"/>
+      <c r="O63" s="371"/>
+      <c r="P63" s="29"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B64" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="353"/>
-      <c r="E62" s="353"/>
-      <c r="F62" s="353"/>
-      <c r="G62" s="353"/>
-      <c r="H62" s="353"/>
-      <c r="I62" s="353"/>
-      <c r="J62" s="353"/>
-      <c r="L62" s="344"/>
-      <c r="M62" s="345"/>
-      <c r="N62" s="372"/>
-      <c r="O62" s="372"/>
-      <c r="P62" s="25"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B63" s="24"/>
-      <c r="C63" s="321" t="s">
+      <c r="C64" s="31"/>
+      <c r="D64" s="353"/>
+      <c r="E64" s="353"/>
+      <c r="F64" s="353"/>
+      <c r="G64" s="353"/>
+      <c r="H64" s="353"/>
+      <c r="I64" s="353"/>
+      <c r="J64" s="353"/>
+      <c r="L64" s="344"/>
+      <c r="M64" s="345"/>
+      <c r="N64" s="372"/>
+      <c r="O64" s="372"/>
+      <c r="P64" s="25"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B65" s="24"/>
+      <c r="C65" s="321" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="342">
+      <c r="D65" s="342">
         <f>'CBS data 2019 (edited)'!J354</f>
         <v>15874</v>
       </c>
-      <c r="E63" s="342">
+      <c r="E65" s="342">
         <f>'CBS data 2019 (edited)'!D354</f>
         <v>83404</v>
       </c>
-      <c r="F63" s="342"/>
-      <c r="G63" s="342"/>
-      <c r="H63" s="342">
+      <c r="F65" s="342"/>
+      <c r="G65" s="342"/>
+      <c r="H65" s="342">
         <f>'CBS data 2019 (edited)'!K354</f>
         <v>19048</v>
       </c>
-      <c r="I63" s="342"/>
-      <c r="J63" s="342"/>
-      <c r="L63" s="344">
+      <c r="I65" s="342"/>
+      <c r="J65" s="342"/>
+      <c r="L65" s="344">
         <v>4390</v>
       </c>
-      <c r="M63" s="345">
-        <f>IF(ISNUMBER(D63),D63/3.6/L63*1000,"")</f>
+      <c r="M65" s="345">
+        <f>IF(ISNUMBER(D65),D65/3.6/L65*1000,"")</f>
         <v>1004.429258415591</v>
       </c>
-      <c r="N63" s="346">
+      <c r="N65" s="346">
         <f>'CBS data 2019 (edited)'!L354</f>
         <v>895</v>
       </c>
-      <c r="O63" s="346">
+      <c r="O65" s="346">
         <f>'CBS data 2019 (edited)'!O354</f>
         <v>1227.9558333333334</v>
       </c>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="360" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="45"/>
-      <c r="C64" s="334"/>
-      <c r="D64" s="373"/>
-      <c r="E64" s="334"/>
-      <c r="F64" s="334"/>
-      <c r="G64" s="334"/>
-      <c r="H64" s="334"/>
-      <c r="I64" s="334"/>
-      <c r="J64" s="334"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="373"/>
-      <c r="M64" s="374"/>
-      <c r="N64" s="334"/>
-      <c r="O64" s="334"/>
-      <c r="P64" s="49"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M65" s="360"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M66" s="375">
-        <f>SUBTOTAL(9,M29:M63)</f>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="360" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="45"/>
+      <c r="C66" s="334"/>
+      <c r="D66" s="373"/>
+      <c r="E66" s="334"/>
+      <c r="F66" s="334"/>
+      <c r="G66" s="334"/>
+      <c r="H66" s="334"/>
+      <c r="I66" s="334"/>
+      <c r="J66" s="334"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="373"/>
+      <c r="M66" s="374"/>
+      <c r="N66" s="334"/>
+      <c r="O66" s="334"/>
+      <c r="P66" s="49"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M67" s="360"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M68" s="375">
+        <f>SUBTOTAL(9,M29:M65)</f>
         <v>13514.900634150526</v>
       </c>
-      <c r="N66" s="115">
-        <f>SUBTOTAL(9,N28:N63)</f>
+      <c r="N68" s="115">
+        <f>SUBTOTAL(9,N28:N65)</f>
         <v>12007</v>
       </c>
-      <c r="O66" s="115">
-        <f>SUBTOTAL(9,O28:O63)</f>
+      <c r="O68" s="115">
+        <f>SUBTOTAL(9,O28:O65)</f>
         <v>16878.668055555558</v>
       </c>
-      <c r="Q66" s="360"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
+      <c r="Q68" s="360"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B69" s="317" t="s">
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B71" s="317" t="s">
+        <v>490</v>
+      </c>
+      <c r="N71" s="353"/>
+      <c r="O71" s="353"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B72" s="438" t="s">
         <v>491</v>
       </c>
-      <c r="N69" s="353"/>
-      <c r="O69" s="353"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B70" s="438" t="s">
-        <v>492</v>
-      </c>
-      <c r="D70" s="420">
+      <c r="D72" s="420">
         <v>7847.4029759999994</v>
       </c>
-      <c r="E70" s="420">
+      <c r="E72" s="420">
         <v>18355.936030000001</v>
       </c>
-      <c r="N70" s="353">
+      <c r="N72" s="353">
         <f>'CBS data 2019 (edited)'!L51</f>
         <v>600</v>
       </c>
-      <c r="O70" s="353">
+      <c r="O72" s="353">
         <f>'CBS data 2019 (edited)'!O51</f>
         <v>350</v>
       </c>
-      <c r="Q70" s="16" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B72" s="317" t="s">
+      <c r="Q72" s="16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B74" s="317" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B75" s="438" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B73" s="438" t="s">
+      <c r="N75" s="439">
+        <f>N61</f>
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="438" t="s">
         <v>513</v>
       </c>
-      <c r="N73" s="439">
-        <f>N59</f>
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="74" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="438" t="s">
+      <c r="N76" s="439">
+        <v>599.28264516129025</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="438" t="s">
         <v>514</v>
       </c>
-      <c r="N74" s="439">
-        <v>599.28264516129025</v>
-      </c>
-    </row>
-    <row r="75" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="438" t="s">
+      <c r="N77" s="440">
+        <f>N75-N76</f>
+        <v>1238.7173548387098</v>
+      </c>
+      <c r="O77" s="441" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77" s="317" t="s">
         <v>515</v>
-      </c>
-      <c r="N75" s="440">
-        <f>N73-N74</f>
-        <v>1238.7173548387098</v>
-      </c>
-      <c r="O75" s="441" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q75" s="317" t="s">
-        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -52910,12 +52966,12 @@
     </row>
     <row r="5" spans="1:16" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
-      <c r="B5" s="460" t="s">
-        <v>417</v>
-      </c>
-      <c r="C5" s="456"/>
-      <c r="D5" s="456"/>
-      <c r="E5" s="457"/>
+      <c r="B5" s="463" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="459"/>
+      <c r="D5" s="459"/>
+      <c r="E5" s="460"/>
     </row>
     <row r="6" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -53039,7 +53095,7 @@
       </c>
       <c r="O11" s="127"/>
       <c r="P11" s="360" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -53110,7 +53166,7 @@
         <v>261</v>
       </c>
       <c r="D15" s="160">
-        <f>E15*technical_specs!F57</f>
+        <f>E15*technical_specs!F58</f>
         <v>0</v>
       </c>
       <c r="E15" s="140">
@@ -53379,12 +53435,12 @@
         <v>2526.71735483871</v>
       </c>
       <c r="N23" s="154">
-        <f>'CBS data 2019 (edited)'!L27-N11-N26+'CHP - CBS Results by machine'!N75</f>
+        <f>'CBS data 2019 (edited)'!L27-N11-N26+'CHP - CBS Results by machine'!N77</f>
         <v>2526.71735483871</v>
       </c>
       <c r="O23" s="127"/>
       <c r="P23" s="438" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
@@ -53825,7 +53881,7 @@
       </c>
       <c r="O41" s="127"/>
       <c r="P41" s="286" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -53849,27 +53905,27 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="317" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="360" t="s">
+        <v>491</v>
+      </c>
+      <c r="D48" s="140">
+        <f>'CHP - CBS Results by machine'!D72</f>
+        <v>7847.4029759999994</v>
+      </c>
+      <c r="E48" s="140">
+        <f>'CHP - CBS Results by machine'!E72</f>
+        <v>18355.936030000001</v>
+      </c>
+      <c r="N48" s="140">
+        <f>'CHP - CBS Results by machine'!N72</f>
+        <v>600</v>
+      </c>
+      <c r="P48" s="16" t="s">
         <v>492</v>
-      </c>
-      <c r="D48" s="140">
-        <f>'CHP - CBS Results by machine'!D70</f>
-        <v>7847.4029759999994</v>
-      </c>
-      <c r="E48" s="140">
-        <f>'CHP - CBS Results by machine'!E70</f>
-        <v>18355.936030000001</v>
-      </c>
-      <c r="N48" s="140">
-        <f>'CHP - CBS Results by machine'!N70</f>
-        <v>600</v>
-      </c>
-      <c r="P48" s="16" t="s">
-        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -53887,10 +53943,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P106" sqref="P106"/>
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53921,7 +53977,7 @@
     <row r="2" spans="1:21" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -53943,12 +53999,12 @@
     </row>
     <row r="5" spans="1:21" s="16" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
-      <c r="B5" s="460" t="s">
-        <v>419</v>
-      </c>
-      <c r="C5" s="456"/>
-      <c r="D5" s="456"/>
-      <c r="E5" s="457"/>
+      <c r="B5" s="463" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="459"/>
+      <c r="D5" s="459"/>
+      <c r="E5" s="460"/>
     </row>
     <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -53956,38 +54012,38 @@
       <c r="C7" s="194"/>
       <c r="D7" s="194"/>
       <c r="E7" s="195" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F7" s="427" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G7" s="194" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H7" s="196"/>
-      <c r="I7" s="461" t="s">
-        <v>420</v>
-      </c>
-      <c r="J7" s="462"/>
+      <c r="I7" s="464" t="s">
+        <v>419</v>
+      </c>
+      <c r="J7" s="465"/>
       <c r="K7" s="427" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L7" s="194"/>
       <c r="M7" s="194" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N7" s="196"/>
       <c r="O7" s="194" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P7" s="194" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="196"/>
-      <c r="R7" s="461" t="s">
+      <c r="R7" s="464" t="s">
         <v>361</v>
       </c>
-      <c r="S7" s="463"/>
+      <c r="S7" s="466"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" s="197" t="s">
@@ -56136,36 +56192,36 @@
       <c r="C58" s="209"/>
       <c r="D58" s="203"/>
       <c r="E58" s="239" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F58" s="430" t="s">
+        <v>497</v>
+      </c>
+      <c r="G58" s="209" t="s">
         <v>498</v>
       </c>
-      <c r="G58" s="209" t="s">
-        <v>499</v>
-      </c>
       <c r="H58" s="240"/>
-      <c r="I58" s="461" t="s">
-        <v>411</v>
-      </c>
-      <c r="J58" s="462"/>
-      <c r="K58" s="462" t="s">
-        <v>525</v>
-      </c>
-      <c r="L58" s="462"/>
+      <c r="I58" s="464" t="s">
+        <v>420</v>
+      </c>
+      <c r="J58" s="465"/>
+      <c r="K58" s="465" t="s">
+        <v>524</v>
+      </c>
+      <c r="L58" s="465"/>
       <c r="M58" s="209" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N58" s="240"/>
-      <c r="O58" s="461" t="s">
+      <c r="O58" s="464" t="s">
         <v>365</v>
       </c>
-      <c r="P58" s="464"/>
+      <c r="P58" s="467"/>
       <c r="Q58" s="240"/>
-      <c r="R58" s="461" t="s">
+      <c r="R58" s="464" t="s">
         <v>361</v>
       </c>
-      <c r="S58" s="463"/>
+      <c r="S58" s="466"/>
       <c r="V58" s="241"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.2">
@@ -56195,10 +56251,10 @@
       </c>
       <c r="N59" s="243"/>
       <c r="O59" s="198" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P59" s="198" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q59" s="243"/>
       <c r="R59" s="198" t="s">
@@ -56722,7 +56778,7 @@
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B75" s="244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C75" s="245"/>
       <c r="D75" s="246"/>
@@ -56732,7 +56788,7 @@
       </c>
       <c r="F75" s="302">
         <f>SUBTOTAL(9,F76:F78)</f>
-        <v>2989</v>
+        <v>2990.3898738059197</v>
       </c>
       <c r="G75" s="302">
         <f>SUBTOTAL(9,G76:G78)</f>
@@ -56761,7 +56817,7 @@
         <v>3187.1205432901288</v>
       </c>
       <c r="F76" s="205">
-        <v>2839</v>
+        <v>2835.6758000684249</v>
       </c>
       <c r="G76" s="205">
         <f>'CHP - CBS Results by machine'!N29</f>
@@ -56775,11 +56831,11 @@
         <v>0</v>
       </c>
       <c r="K76" s="217">
-        <v>46296.070964730221</v>
+        <v>45937.94796110849</v>
       </c>
       <c r="L76" s="216">
         <f t="shared" ref="L76:L78" si="28">K76/3600</f>
-        <v>12.860019712425061</v>
+        <v>12.760541100307913</v>
       </c>
       <c r="M76" s="216">
         <f>'CHP - CBS Results by machine'!D28/3600</f>
@@ -56790,16 +56846,16 @@
         <v>3361</v>
       </c>
       <c r="P76" s="270">
-        <v>4530</v>
+        <v>4500</v>
       </c>
       <c r="Q76" s="206"/>
       <c r="R76" s="218">
         <f t="shared" ref="R76:R78" si="29">F76-G76</f>
-        <v>-149</v>
+        <v>-152.32419993157509</v>
       </c>
       <c r="S76" s="247">
         <f>L76-M76</f>
-        <v>12.860019712425061</v>
+        <v>12.760541100307913</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.2">
@@ -56812,7 +56868,7 @@
         <v>118.88499335106381</v>
       </c>
       <c r="F77" s="205">
-        <v>100</v>
+        <v>105.2173341122172</v>
       </c>
       <c r="G77" s="205">
         <f>'CHP - CBS Results by machine'!N30</f>
@@ -56826,11 +56882,11 @@
         <v>0.02</v>
       </c>
       <c r="K77" s="217">
-        <v>3064.4172783989998</v>
+        <v>3219.6504238338466</v>
       </c>
       <c r="L77" s="216">
         <f t="shared" si="28"/>
-        <v>0.85122702177749998</v>
+        <v>0.8943473399538463</v>
       </c>
       <c r="M77" s="216">
         <f>'CHP - CBS Results by machine'!D29/3600</f>
@@ -56846,11 +56902,11 @@
       <c r="Q77" s="206"/>
       <c r="R77" s="218">
         <f t="shared" si="29"/>
-        <v>100</v>
+        <v>105.2173341122172</v>
       </c>
       <c r="S77" s="247">
         <f>L77-M77</f>
-        <v>-9.8631899446209292</v>
+        <v>-9.8200696264445835</v>
       </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.2">
@@ -56863,7 +56919,7 @@
         <v>15.497215653091118</v>
       </c>
       <c r="F78" s="205">
-        <v>50</v>
+        <v>49.496739625277868</v>
       </c>
       <c r="G78" s="205">
         <f>'CHP - CBS Results by machine'!N31</f>
@@ -56877,11 +56933,11 @@
         <v>0</v>
       </c>
       <c r="K78" s="217">
-        <v>1516.7263519766177</v>
+        <v>1514.6002325335028</v>
       </c>
       <c r="L78" s="216">
         <f t="shared" si="28"/>
-        <v>0.42131287554906049</v>
+        <v>0.4207222868148619</v>
       </c>
       <c r="M78" s="216">
         <f>'CHP - CBS Results by machine'!D30/3600</f>
@@ -56897,11 +56953,11 @@
       <c r="Q78" s="206"/>
       <c r="R78" s="218">
         <f t="shared" si="29"/>
-        <v>48</v>
+        <v>47.496739625277868</v>
       </c>
       <c r="S78" s="247">
         <f>L78-M78</f>
-        <v>-0.32732571360806728</v>
+        <v>-0.32791630234226588</v>
       </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.2">
@@ -56931,15 +56987,15 @@
       <c r="C80" s="245"/>
       <c r="D80" s="246"/>
       <c r="E80" s="210">
-        <f>SUBTOTAL(9,E81:E84)</f>
+        <f>SUBTOTAL(9,E81:E85)</f>
         <v>2882.6214500960805</v>
       </c>
       <c r="F80" s="210">
-        <f>SUBTOTAL(9,F81:F84)</f>
-        <v>6284.0335666067531</v>
+        <f>SUBTOTAL(9,F81:F85)</f>
+        <v>6446.9580336647423</v>
       </c>
       <c r="G80" s="302">
-        <f>SUBTOTAL(9,G81:G84)</f>
+        <f>SUBTOTAL(9,G81:G85)</f>
         <v>2737</v>
       </c>
       <c r="H80" s="206"/>
@@ -56965,10 +57021,10 @@
         <v>732.12991759499664</v>
       </c>
       <c r="F81" s="205">
-        <v>790</v>
+        <v>791.15757658126483</v>
       </c>
       <c r="G81" s="205">
-        <f>'CHP - CBS Results by machine'!N49</f>
+        <f>'CHP - CBS Results by machine'!N50</f>
         <v>791</v>
       </c>
       <c r="H81" s="206"/>
@@ -56979,11 +57035,11 @@
         <v>2.84</v>
       </c>
       <c r="K81" s="215">
-        <v>7923.1982923871838</v>
+        <v>7291.3082257729366</v>
       </c>
       <c r="L81" s="216">
-        <f t="shared" ref="L81:L84" si="30">K81/3600</f>
-        <v>2.2008884145519954</v>
+        <f t="shared" ref="L81:L85" si="30">K81/3600</f>
+        <v>2.0253633960480379</v>
       </c>
       <c r="M81" s="216">
         <f>'CHP - CBS Results by machine'!D43/3600</f>
@@ -56994,16 +57050,16 @@
         <v>3200</v>
       </c>
       <c r="P81" s="270">
-        <v>2785</v>
+        <v>2560</v>
       </c>
       <c r="Q81" s="268"/>
       <c r="R81" s="218">
-        <f t="shared" ref="R81:R84" si="31">F81-G81</f>
-        <v>-1</v>
+        <f t="shared" ref="R81:R85" si="31">F81-G81</f>
+        <v>0.1575765812648342</v>
       </c>
       <c r="S81" s="247">
         <f>L81-M81</f>
-        <v>2.1064439701075508</v>
+        <v>1.9309189516035934</v>
       </c>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.2">
@@ -57016,10 +57072,10 @@
         <v>68.916393968299516</v>
       </c>
       <c r="F82" s="205">
-        <v>39</v>
+        <v>39.74822882258978</v>
       </c>
       <c r="G82" s="205">
-        <f>'CHP - CBS Results by machine'!N50</f>
+        <f>'CHP - CBS Results by machine'!N51</f>
         <v>40</v>
       </c>
       <c r="H82" s="206"/>
@@ -57030,11 +57086,11 @@
         <v>0.09</v>
       </c>
       <c r="K82" s="215">
-        <v>115.51308641598268</v>
+        <v>88.718046732020397</v>
       </c>
       <c r="L82" s="216">
         <f t="shared" si="30"/>
-        <v>3.2086968448884076E-2</v>
+        <v>2.4643901870005668E-2</v>
       </c>
       <c r="M82" s="216">
         <f>'CHP - CBS Results by machine'!D44/3600</f>
@@ -57045,19 +57101,19 @@
         <v>1300</v>
       </c>
       <c r="P82" s="270">
-        <v>820</v>
+        <v>620</v>
       </c>
       <c r="Q82" s="268"/>
       <c r="R82" s="218">
         <f t="shared" si="31"/>
-        <v>-1</v>
+        <v>-0.25177117741021959</v>
       </c>
       <c r="S82" s="247">
         <f>L82-M82</f>
-        <v>-7.8006908093288931</v>
-      </c>
-    </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-7.8081338759077719</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="250"/>
       <c r="C83" s="246"/>
       <c r="D83" s="220" t="s">
@@ -57066,11 +57122,11 @@
       <c r="E83" s="205">
         <v>2081.5415719260313</v>
       </c>
-      <c r="F83" s="491">
+      <c r="F83" s="451">
         <v>5455</v>
       </c>
       <c r="G83" s="205">
-        <f>'CHP - CBS Results by machine'!N51</f>
+        <f>'CHP - CBS Results by machine'!N52</f>
         <v>1906</v>
       </c>
       <c r="H83" s="206"/>
@@ -57080,7 +57136,7 @@
       <c r="J83" s="313">
         <v>4.5199999999999996</v>
       </c>
-      <c r="K83" s="492">
+      <c r="K83" s="452">
         <v>76756.841794067834</v>
       </c>
       <c r="L83" s="216">
@@ -57088,14 +57144,14 @@
         <v>21.321344942796621</v>
       </c>
       <c r="M83" s="216">
-        <f>'CHP - CBS Results by machine'!D45/3600</f>
+        <f>'CHP - CBS Results by machine'!D46/3600</f>
         <v>0</v>
       </c>
       <c r="N83" s="206"/>
       <c r="O83" s="270">
         <v>2960</v>
       </c>
-      <c r="P83" s="493">
+      <c r="P83" s="453">
         <v>3909</v>
       </c>
       <c r="Q83" s="268"/>
@@ -57108,95 +57164,92 @@
         <v>21.321344942796621</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="250"/>
       <c r="C84" s="246"/>
-      <c r="D84" s="220" t="s">
+      <c r="D84" s="495" t="s">
+        <v>525</v>
+      </c>
+      <c r="E84" s="205"/>
+      <c r="F84" s="205">
+        <v>161.01866165413534</v>
+      </c>
+      <c r="G84" s="205"/>
+      <c r="H84" s="206"/>
+      <c r="I84" s="281"/>
+      <c r="J84" s="313"/>
+      <c r="K84" s="217">
+        <v>3083.8294080000001</v>
+      </c>
+      <c r="L84" s="216"/>
+      <c r="M84" s="216"/>
+      <c r="N84" s="206"/>
+      <c r="O84" s="270"/>
+      <c r="P84" s="270">
+        <v>5320</v>
+      </c>
+      <c r="Q84" s="268"/>
+      <c r="R84" s="218"/>
+      <c r="S84" s="247"/>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B85" s="250"/>
+      <c r="C85" s="246"/>
+      <c r="D85" s="220" t="s">
         <v>170</v>
       </c>
-      <c r="E84" s="205">
+      <c r="E85" s="205">
         <v>3.3566606753213588E-2</v>
       </c>
-      <c r="F84" s="205">
+      <c r="F85" s="205">
         <v>3.3566606753213588E-2</v>
       </c>
-      <c r="G84" s="205">
-        <f>'CHP - CBS Results by machine'!N52</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="206"/>
-      <c r="I84" s="281">
-        <v>0</v>
-      </c>
-      <c r="J84" s="313">
-        <v>0</v>
-      </c>
-      <c r="K84" s="217">
-        <v>10.325212023382392</v>
-      </c>
-      <c r="L84" s="216">
+      <c r="G85" s="205">
+        <f>'CHP - CBS Results by machine'!N54</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="206"/>
+      <c r="I85" s="281">
+        <v>0</v>
+      </c>
+      <c r="J85" s="313">
+        <v>0</v>
+      </c>
+      <c r="K85" s="217">
+        <v>12.451331466497322</v>
+      </c>
+      <c r="L85" s="216">
         <f t="shared" si="30"/>
-        <v>2.8681144509395532E-3</v>
-      </c>
-      <c r="M84" s="216">
-        <f>'CHP - CBS Results by machine'!D46/3600</f>
+        <v>3.4587031851381449E-3</v>
+      </c>
+      <c r="M85" s="216">
+        <f>'CHP - CBS Results by machine'!D47/3600</f>
         <v>10.154444444444444</v>
       </c>
-      <c r="N84" s="257"/>
-      <c r="O84" s="270">
+      <c r="N85" s="257"/>
+      <c r="O85" s="270">
         <v>6000</v>
       </c>
-      <c r="P84" s="270">
+      <c r="P85" s="270">
         <v>6000</v>
       </c>
-      <c r="Q84" s="268"/>
-      <c r="R84" s="218">
+      <c r="Q85" s="268"/>
+      <c r="R85" s="218">
         <f t="shared" si="31"/>
         <v>3.3566606753213588E-2</v>
       </c>
-      <c r="S84" s="247">
-        <f>L84-M84</f>
-        <v>-10.151576329993505</v>
-      </c>
-    </row>
-    <row r="85" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="258"/>
-      <c r="C85" s="259"/>
-      <c r="D85" s="259"/>
-      <c r="E85" s="205"/>
-      <c r="F85" s="205"/>
-      <c r="G85" s="205"/>
-      <c r="H85" s="206"/>
-      <c r="I85" s="281"/>
-      <c r="J85" s="281"/>
-      <c r="K85" s="215"/>
-      <c r="L85" s="215"/>
-      <c r="M85" s="216"/>
-      <c r="N85" s="206"/>
-      <c r="O85" s="270"/>
-      <c r="P85" s="270"/>
-      <c r="Q85" s="206"/>
-      <c r="R85" s="218"/>
-      <c r="S85" s="247"/>
-    </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B86" s="244" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="245"/>
-      <c r="D86" s="246"/>
-      <c r="E86" s="210">
-        <f>SUBTOTAL(9,E87:E90)</f>
-        <v>5383.2466216216217</v>
-      </c>
-      <c r="F86" s="210">
-        <f>SUBTOTAL(9,F87:F90)</f>
-        <v>599</v>
-      </c>
-      <c r="G86" s="302">
-        <f>SUBTOTAL(9,G87:G90)</f>
-        <v>5385</v>
-      </c>
+      <c r="S85" s="247">
+        <f>L85-M85</f>
+        <v>-10.150985741259305</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="258"/>
+      <c r="C86" s="259"/>
+      <c r="D86" s="259"/>
+      <c r="E86" s="205"/>
+      <c r="F86" s="205"/>
+      <c r="G86" s="205"/>
       <c r="H86" s="206"/>
       <c r="I86" s="281"/>
       <c r="J86" s="281"/>
@@ -57211,236 +57264,244 @@
       <c r="S86" s="247"/>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B87" s="250"/>
-      <c r="C87" s="246"/>
-      <c r="D87" s="220" t="s">
-        <v>173</v>
-      </c>
-      <c r="E87" s="205">
-        <v>4011.6216216216217</v>
-      </c>
-      <c r="F87" s="491">
-        <v>0</v>
-      </c>
-      <c r="G87" s="205">
-        <f>'CHP - CBS Results by machine'!N56</f>
-        <v>3547</v>
+      <c r="B87" s="244" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="245"/>
+      <c r="D87" s="246"/>
+      <c r="E87" s="210">
+        <f>SUBTOTAL(9,E88:E91)</f>
+        <v>5383.2466216216217</v>
+      </c>
+      <c r="F87" s="210">
+        <f>SUBTOTAL(9,F88:F91)</f>
+        <v>599.28264516129025</v>
+      </c>
+      <c r="G87" s="302">
+        <f>SUBTOTAL(9,G88:G91)</f>
+        <v>5385</v>
       </c>
       <c r="H87" s="206"/>
-      <c r="I87" s="281">
-        <v>70700</v>
-      </c>
-      <c r="J87" s="313">
-        <v>19.64</v>
-      </c>
-      <c r="K87" s="492">
-        <v>0</v>
-      </c>
-      <c r="L87" s="216">
-        <f t="shared" ref="L87:L90" si="32">K87/3600</f>
-        <v>0</v>
-      </c>
-      <c r="M87" s="216">
-        <f>'CHP - CBS Results by machine'!D50/3600</f>
-        <v>9.4444444444444442E-2</v>
-      </c>
+      <c r="I87" s="281"/>
+      <c r="J87" s="281"/>
+      <c r="K87" s="215"/>
+      <c r="L87" s="215"/>
+      <c r="M87" s="216"/>
       <c r="N87" s="206"/>
-      <c r="O87" s="270">
-        <v>3700</v>
-      </c>
-      <c r="P87" s="270">
-        <v>4975</v>
-      </c>
+      <c r="O87" s="270"/>
+      <c r="P87" s="270"/>
       <c r="Q87" s="206"/>
-      <c r="R87" s="218">
-        <f t="shared" ref="R87:R90" si="33">F87-G87</f>
-        <v>-3547</v>
-      </c>
-      <c r="S87" s="247">
-        <f>L87-M87</f>
-        <v>-9.4444444444444442E-2</v>
-      </c>
+      <c r="R87" s="218"/>
+      <c r="S87" s="247"/>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B88" s="250"/>
       <c r="C88" s="246"/>
       <c r="D88" s="220" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E88" s="205">
-        <v>1352.1249999999998</v>
-      </c>
-      <c r="F88" s="205">
-        <v>104</v>
+        <v>4011.6216216216217</v>
+      </c>
+      <c r="F88" s="451">
+        <v>0</v>
       </c>
       <c r="G88" s="205">
-        <f>'CHP - CBS Results by machine'!N57</f>
-        <v>0</v>
+        <f>'CHP - CBS Results by machine'!N58</f>
+        <v>3547</v>
       </c>
       <c r="H88" s="206"/>
       <c r="I88" s="281">
-        <v>19494</v>
+        <v>70700</v>
       </c>
       <c r="J88" s="313">
-        <v>5.42</v>
-      </c>
-      <c r="K88" s="217">
-        <v>2318.8173119999992</v>
+        <v>19.64</v>
+      </c>
+      <c r="K88" s="452">
+        <v>0</v>
       </c>
       <c r="L88" s="216">
-        <f t="shared" si="32"/>
-        <v>0.64411591999999973</v>
+        <f t="shared" ref="L88:L91" si="32">K88/3600</f>
+        <v>0</v>
       </c>
       <c r="M88" s="216">
         <f>'CHP - CBS Results by machine'!D51/3600</f>
-        <v>8.5427777777777774</v>
-      </c>
-      <c r="N88" s="260"/>
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="N88" s="206"/>
       <c r="O88" s="270">
-        <v>8000</v>
+        <v>3700</v>
       </c>
       <c r="P88" s="270">
-        <v>6200</v>
+        <v>4975</v>
       </c>
       <c r="Q88" s="206"/>
       <c r="R88" s="218">
-        <f t="shared" si="33"/>
-        <v>104</v>
+        <f t="shared" ref="R88:R91" si="33">F88-G88</f>
+        <v>-3547</v>
       </c>
       <c r="S88" s="247">
         <f>L88-M88</f>
-        <v>-7.8986618577777774</v>
+        <v>-9.4444444444444442E-2</v>
       </c>
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B89" s="250"/>
       <c r="C89" s="246"/>
       <c r="D89" s="220" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E89" s="205">
-        <v>0</v>
+        <v>1352.1249999999998</v>
       </c>
       <c r="F89" s="205">
-        <v>0</v>
+        <v>103.88966451612899</v>
       </c>
       <c r="G89" s="205">
-        <f>'CHP - CBS Results by machine'!N58</f>
+        <f>'CHP - CBS Results by machine'!N59</f>
         <v>0</v>
       </c>
       <c r="H89" s="206"/>
       <c r="I89" s="281">
-        <v>0</v>
+        <v>19494</v>
       </c>
       <c r="J89" s="313">
-        <v>0</v>
-      </c>
-      <c r="K89" s="215">
-        <v>0</v>
+        <v>5.42</v>
+      </c>
+      <c r="K89" s="217">
+        <v>2318.8173119999992</v>
       </c>
       <c r="L89" s="216">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>0.64411591999999973</v>
       </c>
       <c r="M89" s="216">
         <f>'CHP - CBS Results by machine'!D52/3600</f>
-        <v>0</v>
-      </c>
-      <c r="N89" s="206"/>
+        <v>8.5427777777777774</v>
+      </c>
+      <c r="N89" s="260"/>
       <c r="O89" s="270">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P89" s="270">
-        <v>4500</v>
+        <v>6200</v>
       </c>
       <c r="Q89" s="206"/>
       <c r="R89" s="218">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>103.88966451612899</v>
       </c>
       <c r="S89" s="247">
         <f>L89-M89</f>
-        <v>0</v>
+        <v>-7.8986618577777774</v>
       </c>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B90" s="250"/>
       <c r="C90" s="246"/>
       <c r="D90" s="220" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E90" s="205">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="F90" s="205">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="G90" s="205">
-        <f>'CHP - CBS Results by machine'!N59</f>
-        <v>1838</v>
+        <f>'CHP - CBS Results by machine'!N60</f>
+        <v>0</v>
       </c>
       <c r="H90" s="206"/>
       <c r="I90" s="281">
-        <v>8856</v>
+        <v>0</v>
       </c>
       <c r="J90" s="313">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="K90" s="215">
-        <v>11057.171328</v>
+        <v>0</v>
       </c>
       <c r="L90" s="216">
         <f t="shared" si="32"/>
-        <v>3.07143648</v>
+        <v>0</v>
       </c>
       <c r="M90" s="216">
-        <f>'CHP - CBS Results by machine'!D53/3600</f>
-        <v>11.88</v>
+        <f>'CHP - CBS Results by machine'!D54/3600</f>
+        <v>0</v>
       </c>
       <c r="N90" s="206"/>
       <c r="O90" s="270">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P90" s="270">
-        <v>6200</v>
+        <v>4500</v>
       </c>
       <c r="Q90" s="206"/>
       <c r="R90" s="218">
         <f t="shared" si="33"/>
-        <v>-1343</v>
+        <v>0</v>
       </c>
       <c r="S90" s="247">
         <f>L90-M90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B91" s="250"/>
+      <c r="C91" s="246"/>
+      <c r="D91" s="220" t="s">
+        <v>178</v>
+      </c>
+      <c r="E91" s="205">
+        <v>19.5</v>
+      </c>
+      <c r="F91" s="205">
+        <v>495.39298064516123</v>
+      </c>
+      <c r="G91" s="205">
+        <f>'CHP - CBS Results by machine'!N61</f>
+        <v>1838</v>
+      </c>
+      <c r="H91" s="206"/>
+      <c r="I91" s="281">
+        <v>8856</v>
+      </c>
+      <c r="J91" s="313">
+        <v>2.46</v>
+      </c>
+      <c r="K91" s="215">
+        <v>11057.171328</v>
+      </c>
+      <c r="L91" s="216">
+        <f t="shared" si="32"/>
+        <v>3.07143648</v>
+      </c>
+      <c r="M91" s="216">
+        <f>'CHP - CBS Results by machine'!D55/3600</f>
+        <v>11.88</v>
+      </c>
+      <c r="N91" s="206"/>
+      <c r="O91" s="270">
+        <v>8000</v>
+      </c>
+      <c r="P91" s="270">
+        <v>6200</v>
+      </c>
+      <c r="Q91" s="206"/>
+      <c r="R91" s="218">
+        <f t="shared" si="33"/>
+        <v>-1342.6070193548387</v>
+      </c>
+      <c r="S91" s="247">
+        <f>L91-M91</f>
         <v>-8.8085635199999999</v>
       </c>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B91" s="254"/>
-      <c r="C91" s="255"/>
-      <c r="D91" s="255"/>
-      <c r="E91" s="205"/>
-      <c r="F91" s="205"/>
-      <c r="G91" s="205"/>
-      <c r="H91" s="206"/>
-      <c r="I91" s="281"/>
-      <c r="J91" s="281"/>
-      <c r="K91" s="215"/>
-      <c r="L91" s="215"/>
-      <c r="M91" s="216"/>
-      <c r="N91" s="206"/>
-      <c r="O91" s="270"/>
-      <c r="P91" s="270"/>
-      <c r="Q91" s="206"/>
-      <c r="R91" s="218"/>
-      <c r="S91" s="247"/>
-      <c r="V91" s="261"/>
-    </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B92" s="244" t="s">
-        <v>179</v>
-      </c>
-      <c r="C92" s="245"/>
-      <c r="D92" s="246"/>
+      <c r="B92" s="254"/>
+      <c r="C92" s="255"/>
+      <c r="D92" s="255"/>
       <c r="E92" s="205"/>
       <c r="F92" s="205"/>
       <c r="G92" s="205"/>
@@ -57456,126 +57517,149 @@
       <c r="Q92" s="206"/>
       <c r="R92" s="218"/>
       <c r="S92" s="247"/>
+      <c r="V92" s="261"/>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B93" s="250"/>
-      <c r="C93" s="246"/>
-      <c r="D93" s="220" t="s">
-        <v>180</v>
-      </c>
-      <c r="E93" s="205">
-        <v>726.19999999999993</v>
-      </c>
-      <c r="F93" s="205">
-        <v>895</v>
-      </c>
-      <c r="G93" s="205">
-        <f>'CHP - CBS Results by machine'!N63</f>
-        <v>895</v>
-      </c>
+      <c r="B93" s="244" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="245"/>
+      <c r="D93" s="246"/>
+      <c r="E93" s="205"/>
+      <c r="F93" s="205"/>
+      <c r="G93" s="205"/>
       <c r="H93" s="206"/>
-      <c r="I93" s="281">
-        <v>13586</v>
-      </c>
-      <c r="J93" s="313">
-        <v>3.77</v>
-      </c>
-      <c r="K93" s="217">
-        <v>14139.032940000001</v>
-      </c>
-      <c r="L93" s="216">
-        <f t="shared" ref="L93" si="34">K93/3600</f>
-        <v>3.9275091500000001</v>
-      </c>
-      <c r="M93" s="224">
-        <f>11710/3600</f>
-        <v>3.2527777777777778</v>
-      </c>
+      <c r="I93" s="281"/>
+      <c r="J93" s="281"/>
+      <c r="K93" s="215"/>
+      <c r="L93" s="215"/>
+      <c r="M93" s="216"/>
       <c r="N93" s="206"/>
-      <c r="O93" s="270">
-        <v>5000</v>
-      </c>
-      <c r="P93" s="270">
-        <v>4390</v>
-      </c>
+      <c r="O93" s="270"/>
+      <c r="P93" s="270"/>
       <c r="Q93" s="206"/>
-      <c r="R93" s="218">
-        <f t="shared" ref="R93" si="35">F93-G93</f>
-        <v>0</v>
-      </c>
-      <c r="S93" s="247">
-        <f>L93-M93</f>
-        <v>0.67473137222222235</v>
-      </c>
+      <c r="R93" s="218"/>
+      <c r="S93" s="247"/>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B94" s="250"/>
       <c r="C94" s="246"/>
-      <c r="D94" s="220"/>
-      <c r="E94" s="205"/>
-      <c r="F94" s="205"/>
-      <c r="G94" s="205"/>
+      <c r="D94" s="220" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="205">
+        <v>726.19999999999993</v>
+      </c>
+      <c r="F94" s="205">
+        <v>894.64900911161737</v>
+      </c>
+      <c r="G94" s="205">
+        <f>'CHP - CBS Results by machine'!N65</f>
+        <v>895</v>
+      </c>
       <c r="H94" s="206"/>
-      <c r="I94" s="281"/>
-      <c r="J94" s="281"/>
-      <c r="K94" s="215"/>
-      <c r="L94" s="215"/>
-      <c r="M94" s="203"/>
+      <c r="I94" s="281">
+        <v>13586</v>
+      </c>
+      <c r="J94" s="313">
+        <v>3.77</v>
+      </c>
+      <c r="K94" s="217">
+        <v>14139.032940000001</v>
+      </c>
+      <c r="L94" s="216">
+        <f t="shared" ref="L94" si="34">K94/3600</f>
+        <v>3.9275091500000001</v>
+      </c>
+      <c r="M94" s="224">
+        <f>11710/3600</f>
+        <v>3.2527777777777778</v>
+      </c>
       <c r="N94" s="206"/>
-      <c r="O94" s="204"/>
-      <c r="P94" s="272"/>
+      <c r="O94" s="270">
+        <v>5000</v>
+      </c>
+      <c r="P94" s="270">
+        <v>4390</v>
+      </c>
       <c r="Q94" s="206"/>
-      <c r="R94" s="218"/>
-      <c r="S94" s="247"/>
-    </row>
-    <row r="95" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="228"/>
-      <c r="C95" s="230"/>
-      <c r="D95" s="230" t="s">
+      <c r="R94" s="218">
+        <f t="shared" ref="R94" si="35">F94-G94</f>
+        <v>-0.3509908883826256</v>
+      </c>
+      <c r="S94" s="247">
+        <f>L94-M94</f>
+        <v>0.67473137222222235</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B95" s="250"/>
+      <c r="C95" s="246"/>
+      <c r="D95" s="220"/>
+      <c r="E95" s="205"/>
+      <c r="F95" s="205"/>
+      <c r="G95" s="205"/>
+      <c r="H95" s="206"/>
+      <c r="I95" s="281"/>
+      <c r="J95" s="281"/>
+      <c r="K95" s="215"/>
+      <c r="L95" s="215"/>
+      <c r="M95" s="203"/>
+      <c r="N95" s="206"/>
+      <c r="O95" s="204"/>
+      <c r="P95" s="272"/>
+      <c r="Q95" s="206"/>
+      <c r="R95" s="218"/>
+      <c r="S95" s="247"/>
+    </row>
+    <row r="96" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="228"/>
+      <c r="C96" s="230"/>
+      <c r="D96" s="230" t="s">
         <v>380</v>
       </c>
-      <c r="E95" s="232">
-        <f>SUBTOTAL(9,E61:E94)</f>
+      <c r="E96" s="232">
+        <f>SUBTOTAL(9,E61:E95)</f>
         <v>12313.570824011987</v>
       </c>
-      <c r="F95" s="232">
-        <f>SUBTOTAL(9,F61:F94)</f>
-        <v>10767.033566606753</v>
-      </c>
-      <c r="G95" s="232">
-        <f>SUBTOTAL(9,G75:G94)</f>
+      <c r="F96" s="232">
+        <f>SUBTOTAL(9,F61:F95)</f>
+        <v>10931.279561743571</v>
+      </c>
+      <c r="G96" s="232">
+        <f>SUBTOTAL(9,G75:G95)</f>
         <v>12007</v>
       </c>
-      <c r="H95" s="262"/>
-      <c r="I95" s="312">
+      <c r="H96" s="262"/>
+      <c r="I96" s="312">
         <v>180115</v>
       </c>
-      <c r="J95" s="314">
+      <c r="J96" s="314">
         <v>50</v>
       </c>
-      <c r="K95" s="232">
-        <f>SUBTOTAL(9,K61:K94)</f>
-        <v>163198.11456000025</v>
-      </c>
-      <c r="L95" s="263">
-        <f t="shared" ref="L95" si="36">K95/3600</f>
-        <v>45.332809600000068</v>
-      </c>
-      <c r="M95" s="235">
-        <f>SUBTOTAL(9,M61:M94)</f>
+      <c r="K96" s="232">
+        <f>SUBTOTAL(9,K61:K95)</f>
+        <v>165420.36900351511</v>
+      </c>
+      <c r="L96" s="263">
+        <f t="shared" ref="L96" si="36">K96/3600</f>
+        <v>45.950102500976421</v>
+      </c>
+      <c r="M96" s="235">
+        <f>SUBTOTAL(9,M61:M95)</f>
         <v>64.793888888888887</v>
       </c>
-      <c r="N95" s="264"/>
-      <c r="O95" s="231"/>
-      <c r="P95" s="273"/>
-      <c r="Q95" s="262"/>
-      <c r="R95" s="237">
-        <f t="shared" ref="R95" si="37">F95-G95</f>
-        <v>-1239.9664333932469</v>
-      </c>
-      <c r="S95" s="265">
-        <f>L95-M95</f>
-        <v>-19.461079288888818</v>
+      <c r="N96" s="264"/>
+      <c r="O96" s="231"/>
+      <c r="P96" s="273"/>
+      <c r="Q96" s="262"/>
+      <c r="R96" s="237">
+        <f t="shared" ref="R96" si="37">F96-G96</f>
+        <v>-1075.7204382564287</v>
+      </c>
+      <c r="S96" s="265">
+        <f>L96-M96</f>
+        <v>-18.843786387912466</v>
       </c>
     </row>
   </sheetData>
